--- a/Results for Web Developers.xlsx
+++ b/Results for Web Developers.xlsx
@@ -365,7 +365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K152"/>
+  <dimension ref="A1:K172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,17 +434,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sr Native IOS Developer</t>
+          <t>Analyst, Sr. Database Developer</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>bkissel@cticonsulting.net</t>
+          <t>Royal Caribbean Cruises Ltd. International</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>We are looking for a Sr Native IOS Developer for a contract role based in South Florida.The Sr Native IOS Developer will work on an IOS App that has a SIP…</t>
+          <t>The Senior Database Developer analyzes and examines the business to define needs and/or opportunities by gathering and analyzing data and recommending a course…</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -454,12 +454,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ef598054f91bdbfc&amp;fccid=3b56e2962b71c09c&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=6635bf59b3ca4e9c&amp;fccid=fa65a3fcc2b211c1&amp;vjs=3</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="J2" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="3">
@@ -483,32 +483,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Mainframe Developer</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HandApps Software</t>
+          <t>Cognizant Technology Solutions</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Develop and execute test plans from development to QA.Ensure development projects are delivered on schedule, on budget, and to specification.</t>
+          <t>We have a Mainframe Developer Position .Selected candidates must be willing to join.Should be willing to work at Plano, TX.Should have 6+ years of.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Miami, FL 33101 (Overtown area)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c8de94389cd2d492&amp;fccid=ea6bfb778e0f7aef&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=3fd2083214d7d7a7&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="J3" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="4">
@@ -532,17 +532,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Software Developer - Miami</t>
+          <t>Sr Native IOS Developer</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Credit Ninja</t>
+          <t>bkissel@cticonsulting.net</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>You like solving hard problems and are not afraid to touch deployment processes.You have been in a professional development organization for 3+ years.</t>
+          <t>We are looking for a Sr Native IOS Developer for a contract role based in South Florida.The Sr Native IOS Developer will work on an IOS App that has a SIP…</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -552,12 +552,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b4ad180d83f51a9a&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=ef598054f91bdbfc&amp;fccid=3b56e2962b71c09c&amp;vjs=3</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="J4" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="5">
@@ -581,22 +581,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>React Native Software Developer</t>
+          <t>ERP Application Developer II</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25 Point Systems</t>
+          <t>Florida International University</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Management software for Sales Organizations worldwide, seeks React Native Software Developer.To lead the continued development of a new enhanced platform,…</t>
+          <t>Supports PeopleSoft Campus Community module and Perceptive Softwares Content/Document Management tool (ImageNow).Ability to work flexible hours as needed.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Boca Raton, FL</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=0eed29d413c0dc65&amp;fccid=1da5008645188c5e&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e982325f02214cb2&amp;fccid=9d7d68aaaf164604&amp;vjs=3</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="J5" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="6">
@@ -630,32 +630,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>IT Software Engineer</t>
+          <t>Application Developer</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Office Depot OfficeMax</t>
+          <t>The Learning Experience Corporate Opportunities</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Executes complete life cycle for complex application components based on functional requirements; considers computer equipment capacity and limitations,…</t>
+          <t>Collaborate with cross-functional agile teams across design, product, and engineering initiatives.This is a full-time in-person position at our Deerfield Beach…</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33496</t>
+          <t>Deerfield Beach, FL</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=57d593b45fb99746&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c62f920289eae879&amp;fccid=383cb7ce9ff30d81&amp;vjs=3</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -664,10 +664,10 @@
         </is>
       </c>
       <c r="J6" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="7">
@@ -679,32 +679,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>React Native Developer</t>
+          <t>Sr. PHP Developer</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Genius Plaza</t>
+          <t>Connection, Inc.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>We work in small, independent, self-organizing teams.Implement features while ensuring long term stability of our system and quality of the code.</t>
+          <t>Working under minimum supervision of Manager Business Systems, referring only exceptional problems and issues for management review or approval, the Senior Web…</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Miami, FL 33132 (Downtown area)</t>
+          <t>Boca Raton, FL</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8887f9a664d2caf6&amp;fccid=341227f5ef887ab9&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=03747c73ec336952&amp;fccid=926f4db4efb03d36&amp;vjs=3</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="J7" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="8">
@@ -728,32 +728,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>.NET Developer</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Selmer Demo</t>
+          <t>OPULENTSOFT</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Software Developer duties and responsibilities of the job.A standard Software Developer job description should include, but not be limited to:</t>
+          <t>Good experience with development methodologies like Agile (SCRUM), Waterfall and Test driven development.Software Engineering SDLC, UML, Agile Programming.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>2 days ago·</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b4a4119579df4ad5&amp;fccid=7abf1052483dbe25&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b9fc2bc7f9149f3a&amp;fccid=5bffc2af21727107&amp;vjs=3</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="J8" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="9">
@@ -777,32 +777,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Full Stack Software Engineer</t>
+          <t>Mobile Engineer</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>American Express</t>
+          <t>JLL</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Taking your place as a core member of an agile team that drives user story analysis and elaboration, designs and develops software applications.</t>
+          <t>Operates, inspects, and maintains all HVAC, mechanical, electrical, plumbing, and production equipment and systems in assigned facilities to obtain most…</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sunrise, FL</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1f96c38f922fa757&amp;fccid=f057e04c37cca134&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1ca50f39e4d5cb29&amp;fccid=9917de3c28f569f6&amp;vjs=3</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="J9" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="10">
@@ -826,32 +826,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>.NET Developer</t>
+          <t>React Native Software Developer</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>OPULENTSOFT</t>
+          <t>25 Point Systems</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Good experience with development methodologies like Agile (SCRUM), Waterfall and Test driven development.Software Engineering SDLC, UML, Agile Programming.</t>
+          <t>25 Point Systems, parent company of Tier 25, a fast-growing provider of mobile-based activity.Management software for Sales Organizations worldwide, seeks…</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Boca Raton, FL</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Today·Save </t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b9fc2bc7f9149f3a&amp;fccid=5bffc2af21727107&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=0eed29d413c0dc65&amp;fccid=1da5008645188c5e&amp;vjs=3</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c r="J10" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="11">
@@ -875,17 +875,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>IOS Backend Developer</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>RenewMe - Renew Media Productions</t>
+          <t>HandApps Software</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Seeking backend IOS programmer to work remotely and available for meetings Eastern Standard Time zone to develop backend for two self-help apps.</t>
+          <t>Develop software for mobile devices in accordance with the requirement documentation using standard software tool-kits.Bachelor of Science in Computer Science.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -895,12 +895,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e9124addc271b900&amp;fccid=0104a52a15f6e988&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c8de94389cd2d492&amp;fccid=ea6bfb778e0f7aef&amp;vjs=3</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -909,10 +909,10 @@
         </is>
       </c>
       <c r="J11" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="12">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Dot Net Developer with Production Support</t>
+          <t>Front-End (UI) Web Developer</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cognizant Technology Solutions</t>
+          <t>Complyright, Inc.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>We are looking out for Dot Net Developer.WCF Entity Framework Net Framework.Description Looking for Sr support.ADONET Net Programming C Net ASPNET.</t>
+          <t>Experience in Agile methodologies and JIRA usage.It’s time to look at Taylor.ComplyRight, a Taylor Corporation company, is looking for a GUI Programmer for…</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sunrise, FL</t>
+          <t>Pompano Beach, FL</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8e034db8a7866188&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e2d10a3ac660c054&amp;fccid=c3a258bb8c3cddbc&amp;vjs=3</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -958,10 +958,10 @@
         </is>
       </c>
       <c r="J12" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="13">
@@ -973,32 +973,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DevOps Engineer - 3rd Shift</t>
+          <t>Developer, Senior .NET Web, Energy Management</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LMS</t>
+          <t>Royal Caribbean Cruises Ltd.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>WE ARE HERE TO GET SHIP DONE!LMS is searching for innovators who are looking for a once-in-a-lifetime career pivoting opportunity.</t>
+          <t>The Energy Management department is looking for a Senior Level SQL and .NET Developer to join our exciting and growing team.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Doral, FL 33172</t>
+          <t>Miami, FL 33132 (Downtown area)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=fabc7c6c56f17fb1&amp;fccid=ba98ab0eaa5f2d74&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=f1d36595b2769eca&amp;fccid=fa65a3fcc2b211c1&amp;vjs=3</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1007,10 +1007,10 @@
         </is>
       </c>
       <c r="J13" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="14">
@@ -1022,32 +1022,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mainframe Developer</t>
+          <t>Senior Full- Stack Developer</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cognizant Technology Solutions</t>
+          <t>SmartProcure-GovSpend</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>We have a Mainframe Developer Position .Selected candidates must be willing to join.Should be willing to work at Plano, TX.Should have 6+ years of.</t>
+          <t>We're looking for a passionate Senior Full-Stack Developer to help us build the next generation of GovSpend, a well-funded civic startup disrupting government…</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Miami, FL 33101 (Overtown area)</t>
+          <t>Deerfield Beach, FL 33441</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3fd2083214d7d7a7&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e55addec9100d48e&amp;fccid=3e7cb066ac438b70&amp;vjs=3</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="J14" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="15">
@@ -1071,22 +1071,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ERP Application Developer II</t>
+          <t>Sr Software Engineer</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Florida International University</t>
+          <t>Assurant</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>The ERP Application Developer II is responsible for designing, developing, testing, and maintaining PeopleSoft enterprise software required to support the…</t>
+          <t>The Senior Software Engineer analyzes requirements and designs, codes, tests, installs and maintains application systems, programs, functions, services, and…</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Miami, FL 33157</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2ac1114d60641f05&amp;fccid=9d7d68aaaf164604&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=ccd4d6242571931c&amp;fccid=cc80d5313758adb1&amp;vjs=3</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="J15" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="16">
@@ -1120,32 +1120,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Software Developer I</t>
+          <t>Global Head of Patent - US/EMEA/APAC</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ADT Security Services</t>
+          <t>TTI Corporate</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cloud, Agile, TDD, SQL, NoSQL, Git, Jira.More information is available at www.adt.com.Position Summary: Designs, implements, qualifies and documents software…</t>
+          <t>Global Head of Patent - US/EMEA/APAC.Techtronic Industries North America, Inc., has an opening for a Global Head of Patent for the US, EMEA, and APAC.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33431</t>
+          <t>Fort Lauderdale, FL 33301 (Colee Hammock area)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>7 days ago·</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=df80ea4d942fcc27&amp;fccid=27a2140ddcca6697&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1385149d006ebd00&amp;fccid=4687d587b4d4796d&amp;vjs=3</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="J16" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K16" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="17">
@@ -1169,22 +1169,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Azure Fullstack .NET Developer</t>
+          <t>IT Application Development Technical Lead</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ProsourceIT</t>
+          <t>Ryder</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Proficient in the Agile software development processes.NET Developer to join our Fortune 500 client in Miami, FL on a long-term contract basis.</t>
+          <t>The IT Application Development Technical Lead is that of a technical expert who provides leadership in the design, development and delivery of technology…</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Miami, FL 33138 (Upper Eastside area)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=555f8913df46b958&amp;fccid=1953ab42318457e5&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=2679085e538ad0dc&amp;fccid=389d5a2ac271d6f3&amp;vjs=3</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1203,10 +1203,10 @@
         </is>
       </c>
       <c r="J17" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K17" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="18">
@@ -1218,32 +1218,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Senior React Native Developer</t>
+          <t>.Net Developer, National Federal Tax</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Genius Plaza</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>We work in small, independent, self-organizing teams.Play an integral part in the designing and planning of the platforms architecture.</t>
+          <t>Experience working on Agile development methodology and SCRUM processes.National Federal Tax - .Net Developer.Provide support for existing systems.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Miami, FL 33132 (Downtown area)</t>
+          <t>Miami, FL 33131</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3f8fc1cdc5ed86f4&amp;fccid=341227f5ef887ab9&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=cb753e60094f5ac5&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1252,10 +1252,10 @@
         </is>
       </c>
       <c r="J18" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K18" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="19">
@@ -1267,22 +1267,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sr Software Engineer</t>
+          <t>Test Automation Engineer</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Assurant</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>The Senior Software Engineer analyzes requirements and designs, codes, tests, installs and maintains application systems, programs, functions, services, and…</t>
+          <t>Champion of COP and Agile best-practices, processes, and tools in support of DevOps processes with respect to Test Automation.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Miami, FL 33157</t>
+          <t>Miami, FL 33131</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ccd4d6242571931c&amp;fccid=cc80d5313758adb1&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=50d6ca08b0b85a6d&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="J19" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K19" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="20">
@@ -1316,32 +1316,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Software Engineer - Python - Miami</t>
+          <t>Application Development Manager</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Credit Ninja</t>
+          <t>The Learning Experience Corporate Opportunities</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Your primary mission will be to build tooling for other technical and semi-technical users to make them as highly productive as possible, evolving our data…</t>
+          <t>This is a full-time in-person position at our Deerfield Beach, FL Headquarters as part of our growing development team.Your Day to Day Includes:</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Deerfield Beach, FL</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=834fab11e67743c3&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=a4b54ec13091af52&amp;fccid=383cb7ce9ff30d81&amp;vjs=3</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1350,10 +1350,10 @@
         </is>
       </c>
       <c r="J20" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K20" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="21">
@@ -1365,32 +1365,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Intern - Software Engineering</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Univision communications inc</t>
+          <t>Atos</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Responsible for creating and maintaining documentation related to all software development projects and continuously improve our coding best practice and agile…</t>
+          <t>You will work in a dynamic agile team setup.The purpose of Atos is to help design the future of the information technology space.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Boca Raton, FL</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=67d53325cce97d13&amp;fccid=a94ccb35abbf24d8&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=72b25afd2abe539b&amp;fccid=ee6a99db163236c2&amp;vjs=3</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="J21" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="22">
@@ -1414,32 +1414,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Senior Full- Stack Developer</t>
+          <t>Dot Net Developer with Production Support</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SmartProcure-GovSpend</t>
+          <t>Cognizant Technology Solutions</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Is passionate about web development and related technologies.Has the curiosity to research and learn new technologies and skills.</t>
+          <t>We are looking out for Dot Net Developer.With Production Support for our project team based out Sunrise - FL.Net Programming Net ASPNET ANSI SQL.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Deerfield Beach, FL 33441</t>
+          <t>Sunrise, FL</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e55addec9100d48e&amp;fccid=3e7cb066ac438b70&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=8e034db8a7866188&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="J22" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K22" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="23">
@@ -1463,32 +1463,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Front-End (UI) Web Developer</t>
+          <t>Sr. Software Engineer</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Complyright, Inc.</t>
+          <t>LexisNexis SA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Experience in Agile methodologies and JIRA usage.Your Opportunity: ComplyRight, a Taylor Corporation company, is looking for a GUI Programmer for our office in…</t>
+          <t>For more information, please visit www.lexisnexisrisk.com.We are currently seeking a motivated Java application developer to join our team.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Pompano Beach, FL</t>
+          <t>Boca Raton, FL</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e2d10a3ac660c054&amp;fccid=c3a258bb8c3cddbc&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=cec9556a245e3e6e&amp;fccid=8fd36856966c7aad&amp;vjs=3</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="J23" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K23" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="24">
@@ -1512,32 +1512,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Senior Java Engineer</t>
+          <t>Back-End Engineer</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>American Express</t>
+          <t>T R I M</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Here’s just some of what you’ll be doing:Writing code and unit tests, working with API specs and automation.Are you up for the challenge?</t>
+          <t>T R I M Agency is a startup studio and practitioners of agile development.T R I M Agency is seeking a Backend Engineer to join our startup studio.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Sunrise, FL</t>
+          <t>Fort Lauderdale, FL</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f9959abd079e7575&amp;fccid=f057e04c37cca134&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=f06b9fa71264d3f8&amp;fccid=ac03badfdc09d467&amp;vjs=3</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="J24" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K24" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="25">
@@ -1561,17 +1561,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Software Engineer - Python - Miami</t>
+          <t>Sr. Wireless Engineer</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Credit Ninja</t>
+          <t>Insight Enterprises, Inc.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>You will be joining the development team.Your primary mission will be to build tooling for other technical and semi-technical users to make them as highly…</t>
+          <t>As a Senior Wireless Network Engineer, your primary role will be to be responsible for the operation, design and management of the wireless networks to…</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=834fab11e67743c3&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=170162b4f0993cb0&amp;fccid=3f1f78890d39a15e&amp;vjs=3</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1595,10 +1595,10 @@
         </is>
       </c>
       <c r="J25" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K25" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="26">
@@ -1610,32 +1610,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Software Engineering Architect, eCommerce</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Office Depot OfficeMax</t>
+          <t>CBS</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Experience with Agile and/or DevOps methodologies;Architect is responsible for design, implementation, and oversight of the organization's application systems.</t>
+          <t>The Data Technology and Operations team makes critical data analytics available to the business in order to make crucial business decisions.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33496</t>
+          <t>Fort Lauderdale, FL 33313</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ecc28ce75d67570e&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=d2d3a1936d82f4aa&amp;fccid=39985237a7b0e241&amp;vjs=3</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1644,10 +1644,10 @@
         </is>
       </c>
       <c r="J26" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K26" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="27">
@@ -1659,17 +1659,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Sr. Wireless Engineer</t>
+          <t>Software Engineer - Python - Miami</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Insight Enterprises, Inc.</t>
+          <t>Credit Ninja</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>As a Senior Wireless Network Engineer, your primary role will be to be responsible for the operation, design and management of the wireless networks to…</t>
+          <t>With over 50 employees already, CreditNinja is excited to support its hypergrowth by opening a brand new office in Miami!</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1679,12 +1679,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=170162b4f0993cb0&amp;fccid=3f1f78890d39a15e&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=834fab11e67743c3&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1693,10 +1693,10 @@
         </is>
       </c>
       <c r="J27" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K27" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="28">
@@ -1708,32 +1708,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Software Engineering Architect, eCommerce</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CBS</t>
+          <t>Office Depot OfficeMax</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CBS BUSINESS UNIT: CBS Interactive.JOB LOCATION: Fort Lauderdale, FL.The Data Engineer will be primarily responsible for designing and implementing data…</t>
+          <t>Experience with Agile and/or DevOps methodologies;Architect is responsible for design, implementation, and oversight of the organization's application systems.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33313</t>
+          <t>Boca Raton, FL 33496</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=d2d3a1936d82f4aa&amp;fccid=39985237a7b0e241&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=ecc28ce75d67570e&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1742,10 +1742,10 @@
         </is>
       </c>
       <c r="J28" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="29">
@@ -1757,32 +1757,32 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Sr. NET Web Application (Sr. Software Engineer)</t>
+          <t>IT Application Development Technical Lead</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Assurant</t>
+          <t>Ryder</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>The Senior Software Engineer analyzes requirements and designs, codes, tests, installs and maintains application systems, programs, functions, services, and…</t>
+          <t>The IT Application Development Technical Lead is that of a technical expert who provides leadership in the design, development and delivery of technology…</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Miami, FL 33157</t>
+          <t>Miami, FL 33138 (Upper Eastside area)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=9320dbbc2e8bb80e&amp;fccid=cc80d5313758adb1&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=2679085e538ad0dc&amp;fccid=389d5a2ac271d6f3&amp;vjs=3</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="J29" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K29" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="30">
@@ -1806,32 +1806,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>IT Application Development Technical Lead</t>
+          <t>Mobile Engineer</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ryder</t>
+          <t>JLL</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>The IT Application Development Technical Lead is that of a technical expert who provides leadership in the design, development and delivery of technology…</t>
+          <t>Operates, inspects, and maintains all HVAC, mechanical, electrical, plumbing, and production equipment and systems in assigned facilities to obtain most…</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Miami, FL 33138 (Upper Eastside area)</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2679085e538ad0dc&amp;fccid=389d5a2ac271d6f3&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1ca50f39e4d5cb29&amp;fccid=9917de3c28f569f6&amp;vjs=3</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="J30" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K30" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="31">
@@ -1855,32 +1855,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Network Engineer</t>
+          <t>Sr. NET Web Application (Sr. Software Engineer)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Insight Enterprises, Inc.</t>
+          <t>Assurant</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>The Network Engineer is responsible for analyzing, installing, configuring, maintaining and repairing of network infrastructure and application components.</t>
+          <t>The Senior Software Engineer analyzes requirements and designs, codes, tests, installs and maintains application systems, programs, functions, services, and…</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Miami, FL 33157</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>7 days ago·</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3eaa276eac5342b6&amp;fccid=3f1f78890d39a15e&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=9320dbbc2e8bb80e&amp;fccid=cc80d5313758adb1&amp;vjs=3</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1889,10 +1889,10 @@
         </is>
       </c>
       <c r="J31" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K31" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="32">
@@ -1904,32 +1904,32 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Senior Medical Imaging Software Engineer</t>
+          <t>Middleware Infrastructure Engineer</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Medical Imaging Innovations</t>
+          <t>LMS</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Medical Imaging Innovations is looking to expand its team.We will review your application and contact you if your qualifications are a fit for the position.</t>
+          <t>WE ARE HERE TO GET SHIP DONE!LMS is seeking for innovators who are looking for a once-in-a-lifetime career pivoting opportunity.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33487</t>
+          <t>Doral, FL 33172</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>7 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=feb7a28ea004bbcb&amp;fccid=a543cad7770f8905&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1a58bf881bccc7ed&amp;fccid=ba98ab0eaa5f2d74&amp;vjs=3</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1938,10 +1938,10 @@
         </is>
       </c>
       <c r="J32" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K32" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="33">
@@ -1953,32 +1953,32 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - Miami</t>
+          <t>Embedded Software/System Engineer</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Credit Ninja</t>
+          <t>Astronics</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>You are going to be responsible for developing and maintaining our production platform.You like solving hard problems and are not afraid to touch deployment…</t>
+          <t>Provide embedded software design, technical analysis and resolution of engineering products.Assist other engineers and designers to successfully complete…</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Fort Lauderdale, FL 33309</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=62af14a774686acf&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=7fd9ae60545c5afb&amp;fccid=0760d41f7a3c4154&amp;vjs=3</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1987,10 +1987,10 @@
         </is>
       </c>
       <c r="J33" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K33" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="34">
@@ -2002,32 +2002,32 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Middleware Infrastructure Engineer</t>
+          <t>Technical Lead - Web Development</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LMS</t>
+          <t>Appirio</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WE ARE HERE TO GET SHIP DONE!LMS is seeking for innovators who are looking for a once-in-a-lifetime career pivoting opportunity.</t>
+          <t>Appirio, a Wipro Company helps customers create next-generation Worker and Customer Experiences using the latest cloud technologies.Expert in HTML5 and CSS3.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Doral, FL 33172</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1a58bf881bccc7ed&amp;fccid=ba98ab0eaa5f2d74&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=65392defbafb7d7f&amp;fccid=adfb429f0faca696&amp;vjs=3</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2036,10 +2036,10 @@
         </is>
       </c>
       <c r="J34" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K34" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="35">
@@ -2051,32 +2051,32 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Embedded Software/System Engineer</t>
+          <t>Sr Java Developer/Lead</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Astronics</t>
+          <t>Cognizant Technology Solutions</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Summary: Provide embedded software design, technical analysis and resolution of engineering products.Assist other engineers and designers to successfully…</t>
+          <t>Long Term Contract (CTH) or Preferred Hire Type:FT – ( Cognizant will only consider Full Time applicants for this.Products based on client requirements.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33309</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>Cognizant·T</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7fd9ae60545c5afb&amp;fccid=0760d41f7a3c4154&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=6699e5a3e9e36eb1&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2085,10 +2085,10 @@
         </is>
       </c>
       <c r="J35" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K35" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="36">
@@ -2100,22 +2100,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Senior Software Engineer, Magicverse</t>
+          <t>Android Engineer</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Magic Leap - Multiple Locations</t>
+          <t>Uncommon Coders</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>You will work closely with other teams to identify and meet their needs in a collaborative, agile environment.</t>
+          <t>Our developers are talented individuals who know how to code, but struggle with breaking into the workforce and breaking the barrier to gaining Fortune500…</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Plantation, FL</t>
+          <t>+1 location</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e8352e69c1a13527&amp;fccid=250b3b23ab6d1a65&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=d3c7ba3ca2db8af2&amp;fccid=02008dbc1f346843&amp;vjs=3</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2134,10 +2134,10 @@
         </is>
       </c>
       <c r="J36" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K36" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="37">
@@ -2149,32 +2149,32 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Android Engineer</t>
+          <t>Senior Software Engineer - Miami</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Uncommon Coders</t>
+          <t>Credit Ninja</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Project management - you won't be managing the project, but you will be working in a large team with lots of project management, so you'll have to be able to…</t>
+          <t>With over 50 employees already, CreditNinja is excited to support its hypergrowth by opening a brand new office in Miami!</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>+1 location</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=d3c7ba3ca2db8af2&amp;fccid=02008dbc1f346843&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=62af14a774686acf&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2183,10 +2183,10 @@
         </is>
       </c>
       <c r="J37" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K37" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="38">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>Royal Carib</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="J38" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K38" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="39">
@@ -2247,32 +2247,32 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Systems Engineer (DevOps)</t>
+          <t>DevOps Support</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Backbase</t>
+          <t>Green Roads</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Work with customers and our partners in implementation projects around the globe.How would you guide them to success?</t>
+          <t>We have an immediate opening for DevOps Support within our I.T.Provide hands-on technical support utilizing a combination of open source and Microsoft servers…</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Deerfield Beach, FL</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=504c54aa1b6198a3&amp;fccid=785d678bdb666ef9&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=2403652ad1c8575e&amp;fccid=6fb681a43a198cec&amp;vjs=3</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="J39" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K39" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="40">
@@ -2296,32 +2296,32 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>QA Automation Engineer - Miami</t>
+          <t>Senior Software Engineer, Magicverse</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Credit Ninja</t>
+          <t>Magic Leap - Multiple Locations</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CreditNinja is seeking a QA Automation Engineer to join its development team, which consists of five developers and one senior QA automation engineer.</t>
+          <t>You will work closely with other teams to identify and meet their needs in a collaborative, agile environment.TCP/IP, DNS, TLS, SMTP, HTTP) is a must.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Plantation, FL</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=5a264bb0f9200c24&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e8352e69c1a13527&amp;fccid=250b3b23ab6d1a65&amp;vjs=3</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="J40" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K40" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="41">
@@ -2345,22 +2345,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SENIOR EMBEDDED FIRMWARE ENGINEER</t>
+          <t>Sr. QA Analyst - Automation Engineer</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Egret Technologies</t>
+          <t>Connection, Inc.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Do you feel that you could.Would you like to see more of.We have become a go‐to organization for wireless.You will solve complex technical and systems.</t>
+          <t>The Senior QA Analyst participates in development and testing throughout the lifecycle of product change which includes both waterfall and agile development…</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Dania Beach, FL</t>
+          <t>Boca Raton, FL</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=9ef16f0f9287108f&amp;fccid=8930eb9f4efd900c&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b1c7455e15561589&amp;fccid=926f4db4efb03d36&amp;vjs=3</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2379,10 +2379,10 @@
         </is>
       </c>
       <c r="J41" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K41" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="42">
@@ -2394,32 +2394,32 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Java – J2EE Architect</t>
+          <t>Manager, Software Engineering</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Axiom Global Technologies</t>
+          <t>Thomson Reuters</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Experience with process and methodologies such as RUP and agile.J2EE Architect/Tech Leads to join our Portal Solutions portfolio focusing on Enterprise…</t>
+          <t>In this position you will work as part of an Engineering group to expand and support the platform and integrations, lead several multi-disciplined agile…</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Plantation, FL 33324</t>
+          <t>Delray Beach, FL 33445</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=fbd9973a18cdde42&amp;fccid=fa02b2e9e3571333&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c45c1ffc2e2f3abf&amp;fccid=f4c6ed63cbcfdc0d&amp;vjs=3</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2428,10 +2428,10 @@
         </is>
       </c>
       <c r="J42" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K42" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="43">
@@ -2443,32 +2443,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Technical Lead Audio Visual Marriott Biscayne Bay</t>
+          <t>Automation Engineer</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PSAV Presentation Services</t>
+          <t>Connection</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>The Technical Lead is responsible for intermediate level set up and operation of small to large-scale audiovisual systems in a hospitality environment while…</t>
+          <t>The Senior QA Analyst participates in development and testing throughout the lifecycle of product change which includes both waterfall and agile development…</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Miami, FL 33132 (Downtown area)</t>
+          <t>Boca Raton, FL 33431</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=39cc8922c7b07949&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=38ad8bc0e72af90f&amp;fccid=f8a8108a00b363f6&amp;vjs=3</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2477,10 +2477,10 @@
         </is>
       </c>
       <c r="J43" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K43" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="44">
@@ -2492,32 +2492,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Build and Configuration Management Engineer (Temp to Hire)</t>
+          <t>QA Automation Engineer - Miami</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Performant Financial Corporation</t>
+          <t>Credit Ninja</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Automate application builds and deployments suggesting simplest and most cost-effective system options to facilitate agile development process.</t>
+          <t>With over 50 employees already, CreditNinja is excited to support its hypergrowth by opening a brand new office in Miami!QA test suite - Java, Cucumber.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sunrise, FL</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f8a02ce0b8858aa6&amp;fccid=6263666895b8ca6a&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=5a264bb0f9200c24&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2526,10 +2526,10 @@
         </is>
       </c>
       <c r="J44" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K44" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="45">
@@ -2541,32 +2541,32 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Technical Lead Audio Visual Ritz Carlton South Beach</t>
+          <t>Java – J2EE Architect</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PSAV Presentation Services</t>
+          <t>Axiom Global Technologies</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>The Technical Lead is responsible for intermediate level set up and operation of small to large-scale audiovisual systems in a hospitality environment while…</t>
+          <t>Experience with process and methodologies such as RUP and agile.J2EE Architect/Tech Leads to join our Portal Solutions portfolio focusing on Enterprise…</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Miami Beach, FL 33139</t>
+          <t>Plantation, FL 33324</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=61505fe480792ec9&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=fbd9973a18cdde42&amp;fccid=fa02b2e9e3571333&amp;vjs=3</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2575,10 +2575,10 @@
         </is>
       </c>
       <c r="J45" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K45" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="46">
@@ -2590,17 +2590,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Senior Release Engineer</t>
+          <t>Systems Engineer (DevOps)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Amadeus IT Group SA</t>
+          <t>Backbase</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Engineer will work within an Enterprise Agile Release Train, and with a system team, project managers,.The Senior Release Engineer is responsible for all…</t>
+          <t>Work with customers and our partners in implementation projects around the globe.How would you guide them to success?</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2610,12 +2610,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=85c3183a7b867640&amp;fccid=ffc4c94689585496&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=504c54aa1b6198a3&amp;fccid=785d678bdb666ef9&amp;vjs=3</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="J46" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K46" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="47">
@@ -2639,32 +2639,32 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Technical Lead Audio Visual Ritz Carlton South Beach</t>
+          <t>.Net Developer, National Federal Tax</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PSAV</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>The Technical Lead is responsible for intermediate level set up and operation of small to large-scale audiovisual systems in a hospitality environment while…</t>
+          <t>Experience working on Agile development methodology and SCRUM processes.National Federal Tax - .Net Developer.Provide support for existing systems.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Miami Beach, FL</t>
+          <t>Miami, FL 33131</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a1480bd21ce8c08d&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=cb753e60094f5ac5&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2673,10 +2673,10 @@
         </is>
       </c>
       <c r="J47" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K47" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="48">
@@ -2688,32 +2688,32 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Senior Platform Operations Engineer</t>
+          <t>Build and Configuration Management Engineer (Temp to Hire)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Marriott Vacations Worldwide</t>
+          <t>Performant Financial Corporation</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>As a member of the professional staff, contributes specialized knowledge and skill in a discipline (e.g. Accounting, Finance, Human Resources, Information…</t>
+          <t>Automate application builds and deployments suggesting simplest and most cost-effective system options to facilitate agile development process.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Sunrise, FL</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>2 days ago·</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=93f7e3218d33328c&amp;fccid=c9f5f950ca3de531&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=f8a02ce0b8858aa6&amp;fccid=6263666895b8ca6a&amp;vjs=3</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2722,10 +2722,10 @@
         </is>
       </c>
       <c r="J48" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K48" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="49">
@@ -2737,32 +2737,32 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Systems Engineering DevOps- Senior Consultant</t>
+          <t>Technical Lead Audio Visual Marriott Biscayne Bay</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>PSAV Presentation Services</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Lead day-to-day pilot SDLC implementations with clients and provide a diverse set of agile coaching services ranging from project management, requirements,…</t>
+          <t>The Technical Lead is responsible for intermediate level set up and operation of small to large-scale audiovisual systems in a hospitality environment while…</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Miami, FL 33131</t>
+          <t>Miami, FL 33132 (Downtown area)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=4648b92d48675e3c&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=39cc8922c7b07949&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2771,10 +2771,10 @@
         </is>
       </c>
       <c r="J49" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K49" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="50">
@@ -2786,32 +2786,32 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Global Head of Patent - US/EMEA/APAC</t>
+          <t>Technical Lead Audio Visual Ritz Carlton South Beach</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>TTI Corporate</t>
+          <t>PSAV Presentation Services</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Global Head of Patent - US/EMEA/APAC.Techtronic Industries North America, Inc., has an opening for a Global Head of Patent for the US, EMEA, and APAC.</t>
+          <t>The Technical Lead is responsible for intermediate level set up and operation of small to large-scale audiovisual systems in a hospitality environment while…</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33301 (Colee Hammock area)</t>
+          <t>Miami Beach, FL 33139</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1385149d006ebd00&amp;fccid=4687d587b4d4796d&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=61505fe480792ec9&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2820,10 +2820,10 @@
         </is>
       </c>
       <c r="J50" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K50" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="51">
@@ -2831,36 +2831,36 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Sr Native IOS Developer</t>
+          <t>Technical Lead Audio Visual Marriott Biscayne Bay</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>bkissel@cticonsulting.net</t>
+          <t>PSAV</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>We are looking for a Sr Native IOS Developer for a contract role based in South Florida.The Sr Native IOS Developer will work on an IOS App that has a SIP…</t>
+          <t>The Technical Lead is responsible for intermediate level set up and operation of small to large-scale audiovisual systems in a hospitality environment while…</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Miami, FL 33131</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ef598054f91bdbfc&amp;fccid=3b56e2962b71c09c&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=f915cc44a35259c8&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2869,10 +2869,10 @@
         </is>
       </c>
       <c r="J51" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K51" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="52">
@@ -2880,36 +2880,36 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Mainframe Developer</t>
+          <t>Technical Lead Audio Visual Ritz Carlton South Beach</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Cognizant Technology Solutions</t>
+          <t>PSAV</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>We have a Mainframe Developer Position .Selected candidates must be willing to join.Should be willing to work at Plano, TX.Should have 6+ years of.</t>
+          <t>The Technical Lead is responsible for intermediate level set up and operation of small to large-scale audiovisual systems in a hospitality environment while…</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Miami, FL 33101 (Overtown area)</t>
+          <t>Miami Beach, FL</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3fd2083214d7d7a7&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=a1480bd21ce8c08d&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2918,10 +2918,10 @@
         </is>
       </c>
       <c r="J52" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K52" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="53">
@@ -2929,36 +2929,36 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>React Native Developer</t>
+          <t>.Net Senior Developer, National Federal Tax</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Genius Plaza</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>As a React Native Developer at Genius Plaza your responsibilities will include to research, design and implement features and services that can scale in an…</t>
+          <t>Experience working on Agile development methodology and SCRUM processes.National Federal Tax - .Net Developer.Provide support for existing systems.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Miami, FL 33132 (Downtown area)</t>
+          <t>Miami, FL 33131</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8887f9a664d2caf6&amp;fccid=341227f5ef887ab9&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=63cc9d40140db41b&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2967,10 +2967,10 @@
         </is>
       </c>
       <c r="J53" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K53" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="54">
@@ -2978,36 +2978,36 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>IOS Backend Developer</t>
+          <t>SENIOR EMBEDDED FIRMWARE ENGINEER</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>RenewMe - Renew Media Productions</t>
+          <t>Egret Technologies</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Seeking backend IOS programmer to work remotely and available for meetings Eastern Standard Time zone to develop backend for two self-help apps.</t>
+          <t>Developing code for another revision of the same product?Do you feel that you could.Craft wonderful products if you could innovate more?</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Dania Beach, FL</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>7 days ago·</t>
+          <t>2 days ago·</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e9124addc271b900&amp;fccid=0104a52a15f6e988&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=9ef16f0f9287108f&amp;fccid=8930eb9f4efd900c&amp;vjs=3</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="J54" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K54" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="55">
@@ -3027,26 +3027,26 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Azure Fullstack .NET Developer</t>
+          <t>Systems Engineering DevOps- Senior Consultant</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ProsourceIT</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Proficient in the Agile software development processes.ProsourceIT, a technical consulting, staffing and training firm, is seeking an Azure Fullstack .</t>
+          <t>Lead day-to-day pilot SDLC implementations with clients and provide a diverse set of agile coaching services ranging from project management, requirements,…</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Miami, FL 33131</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=555f8913df46b958&amp;fccid=1953ab42318457e5&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=4648b92d48675e3c&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="J55" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K55" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="56">
@@ -3076,36 +3076,36 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Middleware Infrastructure Engineer</t>
+          <t>Global Head of Patent - US/EMEA/APAC</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LMS</t>
+          <t>TTI Corporate</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>WE ARE HERE TO GET SHIP DONE!LMS is seeking for innovators who are looking for a once-in-a-lifetime career pivoting opportunity.</t>
+          <t>Global Head of Patent - US/EMEA/APAC.Techtronic Industries North America, Inc., has an opening for a Global Head of Patent for the US, EMEA, and APAC.</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Doral, FL 33172</t>
+          <t>Fort Lauderdale, FL 33301 (Colee Hammock area)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>7 days ago·</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1a58bf881bccc7ed&amp;fccid=ba98ab0eaa5f2d74&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1385149d006ebd00&amp;fccid=4687d587b4d4796d&amp;vjs=3</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="J56" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K56" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="57">
@@ -3125,36 +3125,36 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DevOps Engineer - 3rd Shift</t>
+          <t>Analyst, Sr. Database Developer</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LMS</t>
+          <t>Royal Caribbean Cruises Ltd. International</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>WE ARE HERE TO GET SHIP DONE!LMS is searching for innovators who are looking for a once-in-a-lifetime career pivoting opportunity.</t>
+          <t>SUMMARY: The Senior Database Developer analyzes and examines the business to define needs and/or opportunities by gathering and analyzing data and recommending…</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Doral, FL 33172</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>Royal Carib</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=fabc7c6c56f17fb1&amp;fccid=ba98ab0eaa5f2d74&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=6635bf59b3ca4e9c&amp;fccid=fa65a3fcc2b211c1&amp;vjs=3</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3163,10 +3163,10 @@
         </is>
       </c>
       <c r="J57" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K57" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="58">
@@ -3174,7 +3174,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3212,10 +3212,10 @@
         </is>
       </c>
       <c r="J58" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K58" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="59">
@@ -3223,36 +3223,36 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Senior React Native Developer</t>
+          <t>Sr Native IOS Developer</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Genius Plaza</t>
+          <t>bkissel@cticonsulting.net</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>As a Senior React Native Developer at Genius Plaza your responsibilities will include to research, design and implement features and services that can scale in…</t>
+          <t>We are looking for a Sr Native IOS Developer for a contract role based in South Florida.The Sr Native IOS Developer will work on an IOS App that has a SIP…</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Miami, FL 33132 (Downtown area)</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3f8fc1cdc5ed86f4&amp;fccid=341227f5ef887ab9&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=ef598054f91bdbfc&amp;fccid=3b56e2962b71c09c&amp;vjs=3</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3261,10 +3261,10 @@
         </is>
       </c>
       <c r="J59" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K59" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="60">
@@ -3272,36 +3272,36 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Application Developer</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>HandApps Software</t>
+          <t>The Learning Experience Corporate Opportunities</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Develop software for mobile devices in accordance with the requirement documentation using standard software tool-kits.Bachelor of Science in Computer Science.</t>
+          <t>Collaborate with cross-functional agile teams across design, product, and engineering initiatives.Here's how to tell if you're who we're looking for:</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Deerfield Beach, FL</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c8de94389cd2d492&amp;fccid=ea6bfb778e0f7aef&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c62f920289eae879&amp;fccid=383cb7ce9ff30d81&amp;vjs=3</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3310,10 +3310,10 @@
         </is>
       </c>
       <c r="J60" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K60" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="61">
@@ -3321,36 +3321,36 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Software Developer I</t>
+          <t>Mainframe Developer</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ADT Security Services</t>
+          <t>Cognizant Technology Solutions</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Cloud, Agile, TDD, SQL, NoSQL, Git, Jira.More information is available at www.adt.com.Position Summary: Designs, implements, qualifies and documents software…</t>
+          <t>We have a Mainframe Developer Position .Selected candidates must be willing to join.Should be willing to work at Plano, TX.Should have 6+ years of.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33431</t>
+          <t>Miami, FL 33101 (Overtown area)</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>Cognizant·6</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=df80ea4d942fcc27&amp;fccid=27a2140ddcca6697&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=3fd2083214d7d7a7&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3359,10 +3359,10 @@
         </is>
       </c>
       <c r="J61" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K61" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="62">
@@ -3370,36 +3370,36 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Sr. PHP Developer</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Selmer Demo</t>
+          <t>Connection, Inc.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Net, C, Sybase and Oracle Software Developer is generally responsible for the development, design and implementation of new or modified software products or…</t>
+          <t>Working under minimum supervision of Manager Business Systems, referring only exceptional problems and issues for management review or approval, the Senior Web…</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL</t>
+          <t>Boca Raton, FL</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b4a4119579df4ad5&amp;fccid=7abf1052483dbe25&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=03747c73ec336952&amp;fccid=926f4db4efb03d36&amp;vjs=3</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3408,10 +3408,10 @@
         </is>
       </c>
       <c r="J62" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K62" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="63">
@@ -3419,36 +3419,36 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Software Developer - Miami</t>
+          <t>.Net Developer, National Federal Tax</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Credit Ninja</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>You are going to be responsible for developing and maintaining our production platform.You like solving hard problems and are not afraid to touch deployment…</t>
+          <t>Experience working on Agile development methodology and SCRUM processes.Net front-end and SQL back-end programmer who enjoys hands-on development.</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Miami, FL 33131</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b4ad180d83f51a9a&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=cb753e60094f5ac5&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3457,10 +3457,10 @@
         </is>
       </c>
       <c r="J63" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K63" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="64">
@@ -3468,36 +3468,36 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>React Native Software Developer</t>
+          <t>Developer, Senior .NET Web, Energy Management</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>25 Point Systems</t>
+          <t>Royal Caribbean Cruises Ltd.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Management software for Sales Organizations worldwide, seeks React Native Software Developer.To lead the continued development of a new enhanced platform,…</t>
+          <t>The Energy Management department is looking for a Senior Level SQL and .NET Developer to join our exciting and growing team.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Boca Raton, FL</t>
+          <t>Miami, FL 33132 (Downtown area)</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=0eed29d413c0dc65&amp;fccid=1da5008645188c5e&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=f1d36595b2769eca&amp;fccid=fa65a3fcc2b211c1&amp;vjs=3</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="J64" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K64" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="65">
@@ -3517,36 +3517,36 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Android Engineer</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Uncommon Coders</t>
+          <t>HandApps Software</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Project management - you won't be managing the project, but you will be working in a large team with lots of project management, so you'll have to be able to…</t>
+          <t>Develop software for mobile devices in accordance with the requirement documentation using standard software tool-kits.Bachelor of Science in Computer Science.</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>+1 location</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=d3c7ba3ca2db8af2&amp;fccid=02008dbc1f346843&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c8de94389cd2d492&amp;fccid=ea6bfb778e0f7aef&amp;vjs=3</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3555,10 +3555,10 @@
         </is>
       </c>
       <c r="J65" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K65" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="66">
@@ -3566,36 +3566,36 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Network Engineer</t>
+          <t>Application Development Manager</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Insight Enterprises, Inc.</t>
+          <t>The Learning Experience Corporate Opportunities</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>The Network Engineer is responsible for analyzing, installing, configuring, maintaining and repairing of network infrastructure and application components.</t>
+          <t>Here's how to tell if you're who we're looking for:You have a strong passion for new technologies and driving innovation.Your Day to Day Includes:</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Deerfield Beach, FL</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3eaa276eac5342b6&amp;fccid=3f1f78890d39a15e&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=a4b54ec13091af52&amp;fccid=383cb7ce9ff30d81&amp;vjs=3</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3604,10 +3604,10 @@
         </is>
       </c>
       <c r="J66" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K66" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="67">
@@ -3615,36 +3615,36 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>IT Software Engineer</t>
+          <t>.NET Developer</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Office Depot OfficeMax</t>
+          <t>OPULENTSOFT</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Executes complete life cycle for complex application components based on functional requirements; considers computer equipment capacity and limitations,…</t>
+          <t>Good experience with development methodologies like Agile (SCRUM), Waterfall and Test driven development.Software Engineering SDLC, UML, Agile Programming.</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33496</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>2 days ago·</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=57d593b45fb99746&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b9fc2bc7f9149f3a&amp;fccid=5bffc2af21727107&amp;vjs=3</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3653,10 +3653,10 @@
         </is>
       </c>
       <c r="J67" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K67" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="68">
@@ -3664,36 +3664,36 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Front-End (UI) Web Developer</t>
+          <t>Senior Full- Stack Developer</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Complyright, Inc.</t>
+          <t>SmartProcure-GovSpend</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Experience in Agile methodologies and JIRA usage.Your Opportunity: ComplyRight, a Taylor Corporation company, is looking for a GUI Programmer for our office in…</t>
+          <t>We are looking for someone who….Is passionate about web development and related technologies.Has the curiosity to research and learn new technologies and…</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Pompano Beach, FL</t>
+          <t>Deerfield Beach, FL 33441</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e2d10a3ac660c054&amp;fccid=c3a258bb8c3cddbc&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e55addec9100d48e&amp;fccid=3e7cb066ac438b70&amp;vjs=3</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3702,10 +3702,10 @@
         </is>
       </c>
       <c r="J68" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K68" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="69">
@@ -3713,36 +3713,36 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Test Automation Engineer</t>
+          <t>Mobile Engineer</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>JLL</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Champion of COP and Agile best-practices, processes, and tools in support of DevOps processes with respect to Test Automation.</t>
+          <t>Operates, inspects, and maintains all HVAC, mechanical, electrical, plumbing, and production equipment and systems in assigned facilities to obtain most…</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Miami, FL 33131</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=50d6ca08b0b85a6d&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1ca50f39e4d5cb29&amp;fccid=9917de3c28f569f6&amp;vjs=3</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3751,10 +3751,10 @@
         </is>
       </c>
       <c r="J69" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K69" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="70">
@@ -3762,36 +3762,36 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Sr Software Engineer</t>
+          <t>Front-End (UI) Web Developer</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Assurant</t>
+          <t>Complyright, Inc.</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>The Senior Software Engineer analyzes requirements and designs, codes, tests, installs and maintains application systems, programs, functions, services, and…</t>
+          <t>Experience in Agile methodologies and JIRA usage.Your Opportunity: ComplyRight, a Taylor Corporation company, is looking for a GUI Programmer for our office in…</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Miami, FL 33157</t>
+          <t>Pompano Beach, FL</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ccd4d6242571931c&amp;fccid=cc80d5313758adb1&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e2d10a3ac660c054&amp;fccid=c3a258bb8c3cddbc&amp;vjs=3</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3800,10 +3800,10 @@
         </is>
       </c>
       <c r="J70" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K70" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="71">
@@ -3811,36 +3811,36 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Android Engineer</t>
+          <t>Test Automation Engineer</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Uncommon Coders</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Code management - Git GitHub JIRA.</t>
+          <t>Champion of COP and Agile best-practices, processes, and tools in support of DevOps processes with respect to Test Automation.</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>+1 location</t>
+          <t>Miami, FL 33131</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=d3c7ba3ca2db8af2&amp;fccid=02008dbc1f346843&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=50d6ca08b0b85a6d&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3849,10 +3849,10 @@
         </is>
       </c>
       <c r="J71" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K71" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="72">
@@ -3860,36 +3860,36 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Dot Net Developer with Production Support</t>
+          <t>IT Software Engineer</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Cognizant Technology Solutions</t>
+          <t>Office Depot OfficeMax</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>We are looking out for Dot Net Developer.Net Programming Net ASPNET ANSI SQL.WCF Entity Framework Net Framework.ADONET Net Programming C Net ASPNET.</t>
+          <t>Executes complete life cycle for complex application components based on functional requirements; considers computer equipment capacity and limitations,…</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Sunrise, FL</t>
+          <t>Boca Raton, FL 33496</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Cognizant·5</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8e034db8a7866188&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=57d593b45fb99746&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3898,10 +3898,10 @@
         </is>
       </c>
       <c r="J72" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K72" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="73">
@@ -3909,36 +3909,36 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Senior Full- Stack Developer</t>
+          <t>Software Engineer, HighJump</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SmartProcure-GovSpend</t>
+          <t>Chewy</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Has the curiosity to research and learn new technologies and skills.Demonstrates determination in tackling complex projects and finding solutions.</t>
+          <t>Chewy is looking for a HighJump Developer to join our WMS Team either Boston, MA or Dania Beach, FL.Chewy's Warehouse Management System team is focused on…</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Deerfield Beach, FL 33441</t>
+          <t>Dania Beach, FL</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e55addec9100d48e&amp;fccid=3e7cb066ac438b70&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=09e858863bb4a856&amp;fccid=b6add0e6a71f1008&amp;vjs=3</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3947,10 +3947,10 @@
         </is>
       </c>
       <c r="J73" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K73" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="74">
@@ -3958,36 +3958,36 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>eCommerce Software Engineer, Machine Learning</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Univision communications inc</t>
+          <t>Office Depot OfficeMax</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Reports To: Director Media Management Technology.Full stack developer and architect, responsible for building system solutions and integration tools, including…</t>
+          <t>Executes complete life cycle for complex application components based on functional requirements; considers computer equipment capacity and limitations,…</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Boca Raton, FL 33496</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=67d53325cce97d13&amp;fccid=a94ccb35abbf24d8&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b04dd900a936308f&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3996,10 +3996,10 @@
         </is>
       </c>
       <c r="J74" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K74" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="75">
@@ -4007,36 +4007,36 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>DevOps Support</t>
+          <t>IT Application Development Technical Lead</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Green Roads</t>
+          <t>Ryder</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Provide hands-on technical support utilizing a combination of open source and Microsoft servers and applications.</t>
+          <t>The IT Application Development Technical Lead is that of a technical expert who provides leadership in the design, development and delivery of technology…</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Deerfield Beach, FL</t>
+          <t>Miami, FL 33138 (Upper Eastside area)</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2403652ad1c8575e&amp;fccid=6fb681a43a198cec&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=2679085e538ad0dc&amp;fccid=389d5a2ac271d6f3&amp;vjs=3</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4045,10 +4045,10 @@
         </is>
       </c>
       <c r="J75" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K75" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="76">
@@ -4056,36 +4056,36 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Global Head of Patent - US/EMEA/APAC</t>
+          <t>Dot Net Developer with Production Support</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>TTI Corporate</t>
+          <t>Cognizant Technology Solutions</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Global Head of Patent - US/EMEA/APAC.Techtronic Industries North America, Inc., has an opening for a Global Head of Patent for the US, EMEA, and APAC.</t>
+          <t>We are looking out for Dot Net Developer.Net Programming Net ASPNET ANSI SQL.WCF Entity Framework Net Framework.Description Looking for Sr support.</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33301 (Colee Hammock area)</t>
+          <t>Sunrise, FL</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1385149d006ebd00&amp;fccid=4687d587b4d4796d&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=8e034db8a7866188&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4094,10 +4094,10 @@
         </is>
       </c>
       <c r="J76" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K76" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="77">
@@ -4105,36 +4105,36 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>IT Application Development Technical Lead</t>
+          <t>Middleware Infrastructure Engineer</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Ryder</t>
+          <t>LMS</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>The IT Application Development Technical Lead is that of a technical expert who provides leadership in the design, development and delivery of technology…</t>
+          <t>LMS is seeking for innovators who are looking for a once-in-a-lifetime career pivoting opportunity.This role will provide expert support for the transaction…</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Miami, FL 33138 (Upper Eastside area)</t>
+          <t>Doral, FL 33172</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2679085e538ad0dc&amp;fccid=389d5a2ac271d6f3&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1a58bf881bccc7ed&amp;fccid=ba98ab0eaa5f2d74&amp;vjs=3</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4143,10 +4143,10 @@
         </is>
       </c>
       <c r="J77" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K77" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="78">
@@ -4154,36 +4154,36 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Full Stack Software Engineer</t>
+          <t>eCommerce Software Engineer, Machine Learning</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>American Express</t>
+          <t>Office Depot OfficeMax</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Experience in Agile development, automated testing and Continuous Integration/Continuous Delivery (CI/CD).Translate UX designs into functioning applications.</t>
+          <t>Executes complete life cycle for complex application components based on functional requirements; considers computer equipment capacity and limitations,…</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Sunrise, FL</t>
+          <t>Boca Raton, FL 33496</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1f96c38f922fa757&amp;fccid=f057e04c37cca134&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b04dd900a936308f&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4192,10 +4192,10 @@
         </is>
       </c>
       <c r="J78" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K78" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="79">
@@ -4203,36 +4203,36 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Engineer, Machine Learning</t>
+          <t>Software Developer - Miami</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Office Depot OfficeMax</t>
+          <t>Credit Ninja</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Looking for talented and driven individuals who can help us take smart business decisions by finding valuable and actionable insights from large amount of data.</t>
+          <t>You like solving hard problems and are not afraid to touch deployment processes.You have been in a professional development organization for 3+ years.</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33496</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=cabfafe1ae263274&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b4ad180d83f51a9a&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4241,10 +4241,10 @@
         </is>
       </c>
       <c r="J79" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K79" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="80">
@@ -4252,36 +4252,36 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Systems Engineer (DevOps)</t>
+          <t>Full Stack Software Engineer</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Backbase</t>
+          <t>American Express</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Work with customers and our partners in implementation projects around the globe.How would you guide them to success?</t>
+          <t>Prior experience working in high performing agile development team.Agile practices and experience with the Atlassian tool suite (Jira, Confluence, Bitbucket).</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Sunrise, FL</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=504c54aa1b6198a3&amp;fccid=785d678bdb666ef9&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1f96c38f922fa757&amp;fccid=f057e04c37cca134&amp;vjs=3</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4290,10 +4290,10 @@
         </is>
       </c>
       <c r="J80" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K80" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="81">
@@ -4301,36 +4301,36 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Sr. Wireless Engineer</t>
+          <t>Software Engineer, HighJump</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Insight Enterprises, Inc.</t>
+          <t>Chewy</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>What you’ll do at Insight:Design and deploy functional wireless networks.Resolve Issues that L1/L2 support have escalated.</t>
+          <t>Chewy's Warehouse Management System team is focused on building, scaling, and maintaining the software necessary to run our Fulfillment Centers (FCs).</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Dania Beach, FL</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=170162b4f0993cb0&amp;fccid=3f1f78890d39a15e&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=09e858863bb4a856&amp;fccid=b6add0e6a71f1008&amp;vjs=3</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="J81" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K81" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="82">
@@ -4350,36 +4350,36 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Embedded Software/System Engineer</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>CBS</t>
+          <t>Astronics</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>CBS BUSINESS UNIT: CBS Interactive.JOB LOCATION: Fort Lauderdale, FL.The Data Engineer will be primarily responsible for designing and implementing data…</t>
+          <t>Summary: Provide embedded software design, technical analysis and resolution of engineering products.Assist other engineers and designers to successfully…</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33313</t>
+          <t>Fort Lauderdale, FL 33309</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=d2d3a1936d82f4aa&amp;fccid=39985237a7b0e241&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=7fd9ae60545c5afb&amp;fccid=0760d41f7a3c4154&amp;vjs=3</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4388,10 +4388,10 @@
         </is>
       </c>
       <c r="J82" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K82" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="83">
@@ -4399,36 +4399,36 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Software Engineer, HighJump</t>
+          <t>Android Engineer</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Chewy</t>
+          <t>Uncommon Coders</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Chewy is looking for a HighJump Developer to join our WMS Team either Boston, MA or Dania Beach, FL.Chewy's Warehouse Management System team is focused on…</t>
+          <t>Company Overview Uncommon Coders is on a mission to help diversify the technology workforce. Our developers are talented individuals who know how to code,…</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Dania Beach, FL</t>
+          <t>+1 location</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=09e858863bb4a856&amp;fccid=b6add0e6a71f1008&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=d3c7ba3ca2db8af2&amp;fccid=02008dbc1f346843&amp;vjs=3</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4437,10 +4437,10 @@
         </is>
       </c>
       <c r="J83" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K83" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="84">
@@ -4448,26 +4448,26 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Embedded Software/System Engineer</t>
+          <t>Sr. Wireless Engineer</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Astronics</t>
+          <t>Insight Enterprises, Inc.</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Summary: Provide embedded software design, technical analysis and resolution of engineering products.Assist other engineers and designers to successfully…</t>
+          <t>As a Senior Wireless Network Engineer, your primary role will be to be responsible for the operation, design and management of the wireless networks to…</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33309</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7fd9ae60545c5afb&amp;fccid=0760d41f7a3c4154&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=170162b4f0993cb0&amp;fccid=3f1f78890d39a15e&amp;vjs=3</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="J84" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K84" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="85">
@@ -4497,36 +4497,36 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Sr. NET Web Application (Sr. Software Engineer)</t>
+          <t>Sr. Software Engineer</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Assurant</t>
+          <t>LexisNexis SA</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>The position provides leadership, technical guidance, and mentoring to others in areas of acquired expertise.Review and analyze detailed requirements documents…</t>
+          <t>For more information, please visit www.lexisnexisrisk.com.We are currently seeking a motivated Java application developer to join our team.</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Miami, FL 33157</t>
+          <t>Boca Raton, FL</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=9320dbbc2e8bb80e&amp;fccid=cc80d5313758adb1&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=cec9556a245e3e6e&amp;fccid=8fd36856966c7aad&amp;vjs=3</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4535,10 +4535,10 @@
         </is>
       </c>
       <c r="J85" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K85" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="86">
@@ -4546,21 +4546,21 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Software Engineer - Python - Miami</t>
+          <t>Technical Lead - Web Development</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Credit Ninja</t>
+          <t>Appirio</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>You do best with tight deadlines, vague requirements, and open ended projects.You are a developer who has 3+ years of Python, Ruby, or Java experience.</t>
+          <t>Appirio, a Wipro Company helps customers create next-generation Worker and Customer Experiences using the latest cloud technologies.Expert in HTML5 and CSS3.</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4570,12 +4570,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=834fab11e67743c3&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=65392defbafb7d7f&amp;fccid=adfb429f0faca696&amp;vjs=3</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4584,10 +4584,10 @@
         </is>
       </c>
       <c r="J86" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K86" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="87">
@@ -4595,36 +4595,36 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Software Engineering Architect, eCommerce</t>
+          <t>Automation Engineer</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Office Depot OfficeMax</t>
+          <t>Connection</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Experience with Agile and/or DevOps methodologies;Provides an architectural framework for ecommerce application development, maintenance, and enhancement…</t>
+          <t>The Senior QA Analyst participates in development and testing throughout the lifecycle of product change which includes both waterfall and agile development…</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33496</t>
+          <t>Boca Raton, FL 33431</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ecc28ce75d67570e&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=38ad8bc0e72af90f&amp;fccid=f8a8108a00b363f6&amp;vjs=3</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4633,10 +4633,10 @@
         </is>
       </c>
       <c r="J87" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K87" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="88">
@@ -4644,36 +4644,36 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Senior Medical Imaging Software Engineer</t>
+          <t>Sr Java Developer/Lead</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Medical Imaging Innovations</t>
+          <t>Cognizant Technology Solutions</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Design, develop, verify and validate embedded software associated with medical devices in compliance with international medical standards such as IEC60601,…</t>
+          <t>Position whom are legally authorized to work in the United States without.5 years of experience in implementing and managing high.Job Posting : Nov 27 2019.</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33487</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>7 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=feb7a28ea004bbcb&amp;fccid=a543cad7770f8905&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=6699e5a3e9e36eb1&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4682,10 +4682,10 @@
         </is>
       </c>
       <c r="J88" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K88" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="89">
@@ -4693,36 +4693,36 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>QA Test Automation Lead</t>
+          <t>Summer 2020 Internship for Software Engineer</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Royal Caribbean Cruises Ltd. International</t>
+          <t>Motorola Solutions</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Automation development and standards for legacy, DevOps and Agile environments.Monitors the agile team to facilitate continuously improvements.</t>
+          <t>This position is for a Software Engineering intern opportunity at Motorola Solutions in Plantation, FL.Their tasks involve developing design and prototyping…</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Plantation, FL</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Royal Carib</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e746922f13231ad8&amp;fccid=fa65a3fcc2b211c1&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=5229ce81df35af95&amp;fccid=22ec6ef3cc441ac2&amp;vjs=3</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4731,10 +4731,10 @@
         </is>
       </c>
       <c r="J89" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K89" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="90">
@@ -4742,21 +4742,21 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>QA Automation Engineer - Miami</t>
+          <t>Systems Engineer (DevOps)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Credit Ninja</t>
+          <t>Backbase</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>This person will report directly to the VP of R&amp;D.This person will work with fellow engineers and directly with the business to ensure that development…</t>
+          <t>Work with customers and our partners in implementation projects around the globe.How would you guide them to success?</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4766,12 +4766,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=5a264bb0f9200c24&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=504c54aa1b6198a3&amp;fccid=785d678bdb666ef9&amp;vjs=3</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="J90" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K90" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="91">
@@ -4791,36 +4791,36 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Senior Release Engineer</t>
+          <t>Sr. QA Analyst - Automation Engineer</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Amadeus IT Group SA</t>
+          <t>Connection, Inc.</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>The Senior Release Engineer is responsible for all Release Engineering related activities associated with.As a key member of our Product Development Team, the…</t>
+          <t>We deliver end-to-end solutions across the entire IT lifecycle-from assessment, design, procurement, and installation to management and asset disposition.</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Boca Raton, FL</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=85c3183a7b867640&amp;fccid=ffc4c94689585496&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b1c7455e15561589&amp;fccid=926f4db4efb03d36&amp;vjs=3</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -4829,10 +4829,10 @@
         </is>
       </c>
       <c r="J91" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K91" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="92">
@@ -4840,36 +4840,36 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Senior Platform Operations Engineer</t>
+          <t>.Net Senior Developer, National Federal Tax</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Marriott Vacations Worldwide</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Generally works under limited supervision, but within established guidelines, producing and analyzing more complex business information to assist in the…</t>
+          <t>Experience working on Agile development methodology and SCRUM processes.Net front-end and SQL back-end programmer who enjoys hands-on development.</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Miami, FL 33131</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=93f7e3218d33328c&amp;fccid=c9f5f950ca3de531&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=63cc9d40140db41b&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4878,10 +4878,10 @@
         </is>
       </c>
       <c r="J92" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K92" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="93">
@@ -4889,36 +4889,36 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Senior Java Engineer</t>
+          <t>Sr. NET Web Application (Sr. Software Engineer)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>American Express</t>
+          <t>Assurant</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Identifying opportunities for adopting new technologies.Leading a team of engineers that delivers knowledge management solutions to businesses worldwide.</t>
+          <t>The Senior Software Engineer analyzes requirements and designs, codes, tests, installs and maintains application systems, programs, functions, services, and…</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Sunrise, FL</t>
+          <t>Miami, FL 33157</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>7 days ago·</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f9959abd079e7575&amp;fccid=f057e04c37cca134&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=9320dbbc2e8bb80e&amp;fccid=cc80d5313758adb1&amp;vjs=3</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4927,10 +4927,10 @@
         </is>
       </c>
       <c r="J93" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K93" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="94">
@@ -4938,36 +4938,36 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - Miami</t>
+          <t>DevOps Support</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Credit Ninja</t>
+          <t>Green Roads</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>You like solving hard problems and are not afraid to touch deployment processes.You have been in a professional development organization for 5+ years.</t>
+          <t>Isolate and troubleshoot operational issues quickly in a high visibility production environment without impacting services while working within the existing…</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Deerfield Beach, FL</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=62af14a774686acf&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=2403652ad1c8575e&amp;fccid=6fb681a43a198cec&amp;vjs=3</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4976,10 +4976,10 @@
         </is>
       </c>
       <c r="J94" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K94" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="95">
@@ -4987,36 +4987,36 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Java – J2EE Architect</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Axiom Global Technologies</t>
+          <t>CBS</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Experience with process and methodologies such as RUP and agile.J2EE Architect/Tech Leads to join our Portal Solutions portfolio focusing on Enterprise…</t>
+          <t>CBS BUSINESS UNIT: CBS Interactive.JOB LOCATION: Fort Lauderdale, FL.The Data Engineer will be primarily responsible for designing and implementing data…</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Plantation, FL 33324</t>
+          <t>Fort Lauderdale, FL 33313</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=fbd9973a18cdde42&amp;fccid=fa02b2e9e3571333&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=d2d3a1936d82f4aa&amp;fccid=39985237a7b0e241&amp;vjs=3</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5025,10 +5025,10 @@
         </is>
       </c>
       <c r="J95" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K95" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="96">
@@ -5036,36 +5036,36 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SENIOR EMBEDDED FIRMWARE ENGINEER</t>
+          <t>Engineer, Machine Learning</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Egret Technologies</t>
+          <t>Office Depot OfficeMax</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Do you feel that you could.Would you like to see more of.We have become a go‐to organization for wireless.You will work with our clients to.</t>
+          <t>Looking for talented and driven individuals who can help us take smart business decisions by finding valuable and actionable insights from large amount of data.</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Dania Beach, FL</t>
+          <t>Boca Raton, FL 33496</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Today·Save </t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=9ef16f0f9287108f&amp;fccid=8930eb9f4efd900c&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=cabfafe1ae263274&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5074,10 +5074,10 @@
         </is>
       </c>
       <c r="J96" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K96" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="97">
@@ -5085,36 +5085,36 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Senior Software Engineer, Magicverse</t>
+          <t>Back-End Engineer</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Magic Leap - Multiple Locations</t>
+          <t>T R I M</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>You will work closely with other teams to identify and meet their needs in a collaborative, agile environment.</t>
+          <t>T R I M Agency is seeking a Backend Engineer to join our startup studio.You will be responsible for:Improving and optimizing existing backend systems.</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Plantation, FL</t>
+          <t>Fort Lauderdale, FL</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e8352e69c1a13527&amp;fccid=250b3b23ab6d1a65&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=f06b9fa71264d3f8&amp;fccid=ac03badfdc09d467&amp;vjs=3</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="J97" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K97" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="98">
@@ -5134,36 +5134,36 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Build and Configuration Management Engineer (Temp to Hire)</t>
+          <t>Senior Software Engineer, Magicverse</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Performant Financial Corporation</t>
+          <t>Magic Leap - Multiple Locations</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Automate application builds and deployments suggesting simplest and most cost-effective system options to facilitate agile development process.</t>
+          <t>You will work closely with other teams to identify and meet their needs in a collaborative, agile environment.</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Sunrise, FL</t>
+          <t>Plantation, FL</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f8a02ce0b8858aa6&amp;fccid=6263666895b8ca6a&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e8352e69c1a13527&amp;fccid=250b3b23ab6d1a65&amp;vjs=3</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5172,10 +5172,10 @@
         </is>
       </c>
       <c r="J98" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K98" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="99">
@@ -5183,36 +5183,36 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Technical Lead Audio Visual Marriott Biscayne Bay</t>
+          <t>Software Engineering Architect, eCommerce</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>PSAV Presentation Services</t>
+          <t>Office Depot OfficeMax</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>The Technical Lead is responsible for intermediate level set up and operation of small to large-scale audiovisual systems in a hospitality environment while…</t>
+          <t>Experience with Agile and/or DevOps methodologies;Provides an architectural framework for ecommerce application development, maintenance, and enhancement…</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Miami, FL 33132 (Downtown area)</t>
+          <t>Boca Raton, FL 33496</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=39cc8922c7b07949&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=ecc28ce75d67570e&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5221,10 +5221,10 @@
         </is>
       </c>
       <c r="J99" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K99" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="100">
@@ -5232,36 +5232,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Technical Lead Audio Visual Ritz Carlton South Beach</t>
+          <t>Java – J2EE Architect</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>PSAV Presentation Services</t>
+          <t>Axiom Global Technologies</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>The Technical Lead is responsible for intermediate level set up and operation of small to large-scale audiovisual systems in a hospitality environment while…</t>
+          <t>Experience with process and methodologies such as RUP and agile.The ideal candidate will have a strong background and experience in J2EE and distributed…</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Miami Beach, FL 33139</t>
+          <t>Plantation, FL 33324</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=61505fe480792ec9&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=fbd9973a18cdde42&amp;fccid=fa02b2e9e3571333&amp;vjs=3</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5270,10 +5270,10 @@
         </is>
       </c>
       <c r="J100" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K100" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="101">
@@ -5281,36 +5281,36 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Systems Engineering DevOps- Senior Consultant</t>
+          <t>Software Engineer - Python - Miami</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>Credit Ninja</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Lead day-to-day pilot SDLC implementations with clients and provide a diverse set of agile coaching services ranging from project management, requirements,…</t>
+          <t>Your primary mission will be to build tooling for other technical and semi-technical users to make them as highly productive as possible, evolving our data…</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Miami, FL 33131</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=4648b92d48675e3c&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=834fab11e67743c3&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5319,10 +5319,10 @@
         </is>
       </c>
       <c r="J101" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K101" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="102">
@@ -5330,36 +5330,36 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Technical Lead Audio Visual Ritz Carlton South Beach</t>
+          <t>SENIOR EMBEDDED FIRMWARE ENGINEER</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>PSAV</t>
+          <t>Egret Technologies</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>The Technical Lead is responsible for intermediate level set up and operation of small to large-scale audiovisual systems in a hospitality environment while…</t>
+          <t>Do you feel that you could.We have become a go‐to organization for wireless.You will solve complex technical and systems.You will work with our clients to.</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Miami Beach, FL</t>
+          <t>Dania Beach, FL</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>2 days ago·</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a1480bd21ce8c08d&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=9ef16f0f9287108f&amp;fccid=8930eb9f4efd900c&amp;vjs=3</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5368,10 +5368,10 @@
         </is>
       </c>
       <c r="J102" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K102" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="103">
@@ -5379,26 +5379,26 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>ERP Application Developer II</t>
+          <t>Build and Configuration Management Engineer (Temp to Hire)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Florida International University</t>
+          <t>Performant Financial Corporation</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Supports PeopleSoft Campus Community module and Perceptive Softwares Content/Document Management tool (ImageNow).Ability to work flexible hours as needed.</t>
+          <t>The Build and Configuration Management Engineer will be responsible for the implementation and management of all application build/deployment automation…</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Sunrise, FL</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e982325f02214cb2&amp;fccid=9d7d68aaaf164604&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=f8a02ce0b8858aa6&amp;fccid=6263666895b8ca6a&amp;vjs=3</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -5417,10 +5417,10 @@
         </is>
       </c>
       <c r="J103" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K103" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="104">
@@ -5428,36 +5428,36 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Sr Native IOS Developer</t>
+          <t>Senior Java Engineer</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>bkissel@cticonsulting.net</t>
+          <t>American Express</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>We are looking for a Sr Native IOS Developer for a contract role based in South Florida.The Sr Native IOS Developer will work on an IOS App that has a SIP…</t>
+          <t>Serve as a mentoring member of Agile teams that drives user story analysis and elaboration, designs software applications and tests.</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Sunrise, FL</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ef598054f91bdbfc&amp;fccid=3b56e2962b71c09c&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=6d3b157befea4c4b&amp;fccid=f057e04c37cca134&amp;vjs=3</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -5466,10 +5466,10 @@
         </is>
       </c>
       <c r="J104" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K104" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="105">
@@ -5477,26 +5477,26 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>React Native Developer</t>
+          <t>Senior Software Engineer - Miami</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Genius Plaza</t>
+          <t>Credit Ninja</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>As a React Native Developer at Genius Plaza your responsibilities will include to research, design and implement features and services that can scale in an…</t>
+          <t>You are a developer who has 5+ years of Ruby, Node.You have been in a professional development organization for 5+ years.</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Miami, FL 33132 (Downtown area)</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8887f9a664d2caf6&amp;fccid=341227f5ef887ab9&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=62af14a774686acf&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -5515,10 +5515,10 @@
         </is>
       </c>
       <c r="J105" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K105" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="106">
@@ -5526,36 +5526,36 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Mainframe Developer</t>
+          <t>QA Automation Engineer - Miami</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Cognizant Technology Solutions</t>
+          <t>Credit Ninja</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>We have a Mainframe Developer Position .Selected candidates must be willing to join.Should be willing to work at Plano, TX.Should have 6+ years of.</t>
+          <t>This person will report directly to the VP of R&amp;D.The right person for this role will be comfortable manually testing and creating automated tests.</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Miami, FL 33101 (Overtown area)</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3fd2083214d7d7a7&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=5a264bb0f9200c24&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -5564,10 +5564,10 @@
         </is>
       </c>
       <c r="J106" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K106" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="107">
@@ -5575,21 +5575,21 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>IOS Backend Developer</t>
+          <t>QA Test Automation Lead</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>RenewMe - Renew Media Productions</t>
+          <t>Royal Caribbean Cruises Ltd. International</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Seeking backend IOS programmer to work remotely and available for meetings Eastern Standard Time zone to develop backend for two self-help apps.</t>
+          <t>Automation development and standards for legacy, DevOps and Agile environments.Monitors the agile team to facilitate continuously improvements.</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5599,12 +5599,12 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>7 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e9124addc271b900&amp;fccid=0104a52a15f6e988&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e746922f13231ad8&amp;fccid=fa65a3fcc2b211c1&amp;vjs=3</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -5613,10 +5613,10 @@
         </is>
       </c>
       <c r="J107" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K107" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="108">
@@ -5624,26 +5624,26 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>.NET Developer</t>
+          <t>Manager, Software Engineering</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>OPULENTSOFT</t>
+          <t>Thomson Reuters</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Good experience with development methodologies like Agile (SCRUM), Waterfall and Test driven development.Software Engineering SDLC, UML, Agile Programming.</t>
+          <t>Assists team members with problem analysis, estimating, software design, development, and testing within an Agile software methodology.</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Delray Beach, FL 33445</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -5653,7 +5653,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b9fc2bc7f9149f3a&amp;fccid=5bffc2af21727107&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c45c1ffc2e2f3abf&amp;fccid=f4c6ed63cbcfdc0d&amp;vjs=3</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="J108" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K108" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="109">
@@ -5673,36 +5673,36 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Software Developer I</t>
+          <t>Technical Lead Audio Visual Marriott Biscayne Bay</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>ADT Security Services</t>
+          <t>PSAV</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Cloud, Agile, TDD, SQL, NoSQL, Git, Jira.More information is available at www.adt.com.Designs, implements, qualifies and documents software deliverables for…</t>
+          <t>The Technical Lead is responsible for intermediate level set up and operation of small to large-scale audiovisual systems in a hospitality environment while…</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33431</t>
+          <t>Miami, FL 33131</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=df80ea4d942fcc27&amp;fccid=27a2140ddcca6697&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=f915cc44a35259c8&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -5711,10 +5711,10 @@
         </is>
       </c>
       <c r="J109" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K109" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="110">
@@ -5722,36 +5722,36 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Azure Fullstack .NET Developer</t>
+          <t>Technical Lead Audio Visual Marriott Biscayne Bay</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>ProsourceIT</t>
+          <t>PSAV Presentation Services</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Proficient in the Agile software development processes.ProsourceIT, a technical consulting, staffing and training firm, is seeking an Azure Fullstack .NET…</t>
+          <t>The Technical Lead is responsible for intermediate level set up and operation of small to large-scale audiovisual systems in a hospitality environment while…</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Miami, FL 33132 (Downtown area)</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=555f8913df46b958&amp;fccid=1953ab42318457e5&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=39cc8922c7b07949&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -5760,10 +5760,10 @@
         </is>
       </c>
       <c r="J110" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K110" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="111">
@@ -5771,36 +5771,36 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Senior React Native Developer</t>
+          <t>Systems Engineering DevOps- Senior Consultant</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Genius Plaza</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>As a Senior React Native Developer at Genius Plaza your responsibilities will include to research, design and implement features and services that can scale in…</t>
+          <t>Lead day-to-day pilot SDLC implementations with clients and provide a diverse set of agile coaching services ranging from project management, requirements,…</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Miami, FL 33132 (Downtown area)</t>
+          <t>Miami, FL 33131</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3f8fc1cdc5ed86f4&amp;fccid=341227f5ef887ab9&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=4648b92d48675e3c&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -5809,10 +5809,10 @@
         </is>
       </c>
       <c r="J111" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K111" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="112">
@@ -5820,36 +5820,36 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Technical Lead Audio Visual Ritz Carlton South Beach</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HandApps Software</t>
+          <t>PSAV Presentation Services</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Develop software for mobile devices in accordance with the requirement documentation using standard software tool-kits.Bachelor of Science in Computer Science.</t>
+          <t>The Technical Lead is responsible for intermediate level set up and operation of small to large-scale audiovisual systems in a hospitality environment while…</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Miami Beach, FL 33139</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c8de94389cd2d492&amp;fccid=ea6bfb778e0f7aef&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=61505fe480792ec9&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -5858,10 +5858,10 @@
         </is>
       </c>
       <c r="J112" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K112" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="113">
@@ -5869,36 +5869,36 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Mobile Engineer</t>
+          <t>Technical Lead Audio Visual Ritz Carlton South Beach</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>JLL</t>
+          <t>PSAV</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Operates, inspects, and maintains all HVAC, mechanical, electrical, plumbing, and production equipment and systems in assigned facilities to obtain most…</t>
+          <t>The Technical Lead is responsible for intermediate level set up and operation of small to large-scale audiovisual systems in a hospitality environment while…</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Miami Beach, FL</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1ca50f39e4d5cb29&amp;fccid=9917de3c28f569f6&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=a1480bd21ce8c08d&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -5907,10 +5907,10 @@
         </is>
       </c>
       <c r="J113" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K113" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="114">
@@ -5918,36 +5918,36 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>React Native Software Developer</t>
+          <t>Application Developer</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>25 Point Systems</t>
+          <t>The Learning Experience Corporate Opportunities</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>25 Point Systems, parent company of Tier 25, a fast-growing provider of mobile-based activity.Management software for Sales Organizations worldwide, seeks…</t>
+          <t>Collaborate with cross-functional agile teams across design, product, and engineering initiatives.Here's how to tell if you're who we're looking for:</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Boca Raton, FL</t>
+          <t>Deerfield Beach, FL</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=0eed29d413c0dc65&amp;fccid=1da5008645188c5e&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c62f920289eae879&amp;fccid=383cb7ce9ff30d81&amp;vjs=3</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -5956,10 +5956,10 @@
         </is>
       </c>
       <c r="J114" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K114" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="115">
@@ -5967,36 +5967,36 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Front-End (UI) Web Developer</t>
+          <t>Full Stack Software Engineer</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Complyright, Inc.</t>
+          <t>American Express</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Experience in Agile methodologies and JIRA usage.It’s time to look at Taylor.ComplyRight, a Taylor Corporation company, is looking for a GUI Programmer for…</t>
+          <t>Taking your place as a core member of an agile team that drives user story analysis and elaboration, designs and develops software applications.</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Pompano Beach, FL</t>
+          <t>Sunrise, FL</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e2d10a3ac660c054&amp;fccid=c3a258bb8c3cddbc&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1f96c38f922fa757&amp;fccid=f057e04c37cca134&amp;vjs=3</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6005,10 +6005,10 @@
         </is>
       </c>
       <c r="J115" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K115" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="116">
@@ -6016,36 +6016,36 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Test Automation Engineer</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>HandApps Software</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Champion of COP and Agile best-practices, processes, and tools in support of DevOps processes with respect to Test Automation.</t>
+          <t>Develop software for mobile devices in accordance with the requirement documentation using standard software tool-kits.Bachelor of Science in Computer Science.</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Miami, FL 33131</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=50d6ca08b0b85a6d&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c8de94389cd2d492&amp;fccid=ea6bfb778e0f7aef&amp;vjs=3</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6054,10 +6054,10 @@
         </is>
       </c>
       <c r="J116" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K116" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="117">
@@ -6065,36 +6065,36 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>eCommerce Software Engineer, Machine Learning</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Selmer Demo</t>
+          <t>Office Depot OfficeMax</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>A Java, C#, .Net, C, Sybase and Oracle Software Developer is generally responsible for the development, design and implementation of new or modified software…</t>
+          <t>Executes complete life cycle for complex application components based on functional requirements; considers computer equipment capacity and limitations,…</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL</t>
+          <t>Boca Raton, FL 33496</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b4a4119579df4ad5&amp;fccid=7abf1052483dbe25&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b04dd900a936308f&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="J117" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K117" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="118">
@@ -6114,36 +6114,36 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Software Developer - Miami</t>
+          <t>Summer 2020 Internship for Software Engineer</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Credit Ninja</t>
+          <t>Motorola Solutions</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>With over 50 employees already, CreditNinja is excited to support its hypergrowth by opening a brand new office in Miami!</t>
+          <t>This position is for a Software Engineering intern opportunity at Motorola Solutions in Plantation, FL.Software Engineers at Motorola Solutions are involved in…</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Plantation, FL</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b4ad180d83f51a9a&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=5229ce81df35af95&amp;fccid=22ec6ef3cc441ac2&amp;vjs=3</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6152,10 +6152,10 @@
         </is>
       </c>
       <c r="J118" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K118" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="119">
@@ -6163,36 +6163,36 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>DevOps Engineer - 3rd Shift</t>
+          <t>Sr. PHP Developer</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>LMS</t>
+          <t>Connection, Inc.</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>WE ARE HERE TO GET SHIP DONE!LMS is searching for innovators who are looking for a once-in-a-lifetime career pivoting opportunity.</t>
+          <t>Working under minimum supervision of Manager Business Systems, referring only exceptional problems and issues for management review or approval, the Senior Web…</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Doral, FL 33172</t>
+          <t>Boca Raton, FL</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=fabc7c6c56f17fb1&amp;fccid=ba98ab0eaa5f2d74&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=03747c73ec336952&amp;fccid=926f4db4efb03d36&amp;vjs=3</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6201,10 +6201,10 @@
         </is>
       </c>
       <c r="J119" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K119" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="120">
@@ -6212,36 +6212,36 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Middleware Infrastructure Engineer</t>
+          <t>IT Software Engineer</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>LMS</t>
+          <t>Office Depot OfficeMax</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>WE ARE HERE TO GET SHIP DONE!LMS is seeking for innovators who are looking for a once-in-a-lifetime career pivoting opportunity.</t>
+          <t>Executes complete life cycle for complex application components based on functional requirements; considers computer equipment capacity and limitations,…</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Doral, FL 33172</t>
+          <t>Boca Raton, FL 33496</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1a58bf881bccc7ed&amp;fccid=ba98ab0eaa5f2d74&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=57d593b45fb99746&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6250,10 +6250,10 @@
         </is>
       </c>
       <c r="J120" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K120" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="121">
@@ -6261,36 +6261,36 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>IT Software Engineer</t>
+          <t>Software Developer - Miami</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Office Depot OfficeMax</t>
+          <t>Credit Ninja</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Executes complete life cycle for complex application components based on functional requirements;Considers computer equipment capacity and limitations,…</t>
+          <t>You are going to be responsible for developing and maintaining our production platform.You like solving hard problems and are not afraid to touch deployment…</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33496</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=57d593b45fb99746&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b4ad180d83f51a9a&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6299,10 +6299,10 @@
         </is>
       </c>
       <c r="J121" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K121" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="122">
@@ -6310,36 +6310,36 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Engineer, Machine Learning</t>
+          <t>React Native Software Developer</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Office Depot OfficeMax</t>
+          <t>25 Point Systems</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Looking for talented and driven individuals who can help us take smart business decisions by finding valuable and actionable insights from large amount of data.</t>
+          <t>Management software for Sales Organizations worldwide, seeks React Native Software Developer.To lead the continued development of a new enhanced platform,…</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33496</t>
+          <t>Boca Raton, FL</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=cabfafe1ae263274&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=0eed29d413c0dc65&amp;fccid=1da5008645188c5e&amp;vjs=3</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -6348,10 +6348,10 @@
         </is>
       </c>
       <c r="J122" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K122" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="123">
@@ -6359,36 +6359,36 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Test Automation Engineer</t>
+          <t>Sr Native IOS Developer</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>bkissel@cticonsulting.net</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Champion of COP and Agile best-practices, processes, and tools in support of DevOps processes with respect to Test Automation.</t>
+          <t>We are looking for a Sr Native IOS Developer for a contract role based in South Florida.The Sr Native IOS Developer will work on an IOS App that has a SIP…</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Miami, FL 33131</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=50d6ca08b0b85a6d&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=ef598054f91bdbfc&amp;fccid=3b56e2962b71c09c&amp;vjs=3</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -6397,10 +6397,10 @@
         </is>
       </c>
       <c r="J123" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K123" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="124">
@@ -6408,36 +6408,36 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Sr. Wireless Engineer</t>
+          <t>Intern - Software Engineering</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Insight Enterprises, Inc.</t>
+          <t>Atos</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>As a Senior Wireless Network Engineer, your primary role will be to be responsible for the operation, design and management of the wireless networks to…</t>
+          <t>You will work in a dynamic agile team setup.The purpose of Atos is to help design the future of the information technology space.</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Boca Raton, FL</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=170162b4f0993cb0&amp;fccid=3f1f78890d39a15e&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=72b25afd2abe539b&amp;fccid=ee6a99db163236c2&amp;vjs=3</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -6446,10 +6446,10 @@
         </is>
       </c>
       <c r="J124" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K124" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="125">
@@ -6457,36 +6457,36 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>DevOps Support</t>
+          <t>Dot Net Developer with Production Support</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Green Roads</t>
+          <t>Cognizant Technology Solutions</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>We have an immediate opening for DevOps Support within our I.T.Provide hands-on technical support utilizing a combination of open source and Microsoft servers…</t>
+          <t>We are looking out for Dot Net Developer.With Production Support for our project team based out Sunrise - FL.Net Programming Net ASPNET ANSI SQL.</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Deerfield Beach, FL</t>
+          <t>Sunrise, FL</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>Cognizant·6</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2403652ad1c8575e&amp;fccid=6fb681a43a198cec&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=8e034db8a7866188&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -6495,10 +6495,10 @@
         </is>
       </c>
       <c r="J125" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K125" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="126">
@@ -6506,36 +6506,36 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Front-End (UI) Web Developer</t>
+          <t>Mainframe Developer</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Complyright, Inc.</t>
+          <t>Cognizant Technology Solutions</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Experience in Agile methodologies and JIRA usage.It’s time to look at Taylor.ComplyRight, a Taylor Corporation company, is looking for a GUI Programmer for…</t>
+          <t>We have a Mainframe Developer Position .Selected candidates must be willing to join.Should be willing to work at Plano, TX.Should have 6+ years of.</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Pompano Beach, FL</t>
+          <t>Miami, FL 33101 (Overtown area)</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>Cognizant·6</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e2d10a3ac660c054&amp;fccid=c3a258bb8c3cddbc&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=3fd2083214d7d7a7&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -6544,10 +6544,10 @@
         </is>
       </c>
       <c r="J126" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K126" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="127">
@@ -6555,36 +6555,36 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Software Engineer, HighJump</t>
+          <t>ERP Application Developer II</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Chewy</t>
+          <t>Florida International University</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Chewy is looking for a HighJump Developer to join our WMS Team either Boston, MA or Dania Beach, FL.Chewy's Warehouse Management System team is focused on…</t>
+          <t>Supports PeopleSoft Campus Community module and Perceptive Softwares Content/Document Management tool (ImageNow).Ability to work flexible hours as needed.</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Dania Beach, FL</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=09e858863bb4a856&amp;fccid=b6add0e6a71f1008&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e982325f02214cb2&amp;fccid=9d7d68aaaf164604&amp;vjs=3</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -6593,10 +6593,10 @@
         </is>
       </c>
       <c r="J127" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K127" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="128">
@@ -6604,36 +6604,36 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>.NET Developer</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>CBS</t>
+          <t>OPULENTSOFT</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>The Data Technology and Operations team makes critical data analytics available to the business in order to make crucial business decisions.</t>
+          <t>Good experience with development methodologies like Agile (SCRUM), Waterfall and Test driven development.Software Engineering SDLC, UML, Agile Programming.</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33313</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>2 days ago·</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=d2d3a1936d82f4aa&amp;fccid=39985237a7b0e241&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b9fc2bc7f9149f3a&amp;fccid=5bffc2af21727107&amp;vjs=3</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6642,10 +6642,10 @@
         </is>
       </c>
       <c r="J128" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K128" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="129">
@@ -6653,36 +6653,36 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Middleware Infrastructure Engineer</t>
+          <t>Application Development Manager</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>LMS</t>
+          <t>The Learning Experience Corporate Opportunities</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>WE ARE HERE TO GET SHIP DONE!LMS is seeking for innovators who are looking for a once-in-a-lifetime career pivoting opportunity.</t>
+          <t>Here's how to tell if you're who we're looking for:You have a strong passion for new technologies and driving innovation.Your Day to Day Includes:</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Doral, FL 33172</t>
+          <t>Deerfield Beach, FL</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1a58bf881bccc7ed&amp;fccid=ba98ab0eaa5f2d74&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=a4b54ec13091af52&amp;fccid=383cb7ce9ff30d81&amp;vjs=3</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -6691,10 +6691,10 @@
         </is>
       </c>
       <c r="J129" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K129" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="130">
@@ -6702,36 +6702,36 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Android Engineer</t>
+          <t>Developer, Senior .NET Web, Energy Management</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Uncommon Coders</t>
+          <t>Royal Caribbean Cruises Ltd.</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Our developers are talented individuals who know how to code, but struggle with breaking into the workforce and breaking the barrier to gaining Fortune500…</t>
+          <t>The Energy Management department is looking for a Senior Level SQL and .NET Developer to join our exciting and growing team.</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>+1 location</t>
+          <t>Miami, FL 33132 (Downtown area)</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=d3c7ba3ca2db8af2&amp;fccid=02008dbc1f346843&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=f1d36595b2769eca&amp;fccid=fa65a3fcc2b211c1&amp;vjs=3</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -6740,10 +6740,10 @@
         </is>
       </c>
       <c r="J130" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K130" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="131">
@@ -6751,36 +6751,36 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Network Engineer</t>
+          <t>Sr Software Engineer</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Insight Enterprises, Inc.</t>
+          <t>Assurant</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>The Network Engineer is responsible for analyzing, installing, configuring, maintaining and repairing of network infrastructure and application components.</t>
+          <t>The Senior Software Engineer analyzes requirements and designs, codes, tests, installs and maintains application systems, programs, functions, services, and…</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Miami, FL 33157</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>7 days ago·</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3eaa276eac5342b6&amp;fccid=3f1f78890d39a15e&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=ccd4d6242571931c&amp;fccid=cc80d5313758adb1&amp;vjs=3</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -6789,10 +6789,10 @@
         </is>
       </c>
       <c r="J131" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K131" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="132">
@@ -6800,21 +6800,21 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - Miami</t>
+          <t>Analyst, Sr. Database Developer</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Credit Ninja</t>
+          <t>Royal Caribbean Cruises Ltd. International</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>With over 50 employees already, CreditNinja is excited to support its hypergrowth by opening a brand new office in Miami!</t>
+          <t>SUMMARY: The Senior Database Developer analyzes and examines the business to define needs and/or opportunities by gathering and analyzing data and recommending…</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -6824,12 +6824,12 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>Royal Carib</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=62af14a774686acf&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=6635bf59b3ca4e9c&amp;fccid=fa65a3fcc2b211c1&amp;vjs=3</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -6838,10 +6838,10 @@
         </is>
       </c>
       <c r="J132" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K132" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="133">
@@ -6849,36 +6849,36 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Senior Java Engineer</t>
+          <t>Senior Full- Stack Developer</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>American Express</t>
+          <t>SmartProcure-GovSpend</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Don’t make a difference without it.Here’s just some of what you’ll be doing:Writing code and unit tests, working with API specs and automation.</t>
+          <t>We are looking for someone who….Is passionate about web development and related technologies.Has the curiosity to research and learn new technologies and…</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Sunrise, FL</t>
+          <t>Deerfield Beach, FL 33441</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f9959abd079e7575&amp;fccid=f057e04c37cca134&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e55addec9100d48e&amp;fccid=3e7cb066ac438b70&amp;vjs=3</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -6887,10 +6887,10 @@
         </is>
       </c>
       <c r="J133" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K133" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="134">
@@ -6898,36 +6898,36 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Senior Software Engineer, Magicverse</t>
+          <t>Software Engineer - Python - Miami</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Magic Leap - Multiple Locations</t>
+          <t>Credit Ninja</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>You will work closely with other teams to identify and meet their needs in a collaborative, agile environment.TCP/IP, DNS, TLS, SMTP, HTTP) is a must.</t>
+          <t>You will be joining the development team.Your primary mission will be to build tooling for other technical and semi-technical users to make them as highly…</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Plantation, FL</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e8352e69c1a13527&amp;fccid=250b3b23ab6d1a65&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=834fab11e67743c3&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -6936,10 +6936,10 @@
         </is>
       </c>
       <c r="J134" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K134" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="135">
@@ -6947,36 +6947,36 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Systems Engineer (DevOps)</t>
+          <t>Software Engineer, HighJump</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Backbase</t>
+          <t>Chewy</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Work with customers and our partners in implementation projects around the globe.How would you guide them to success?</t>
+          <t>Chewy is looking for a HighJump Developer to join our WMS Team either Boston, MA or Dania Beach, FL.Chewy's Warehouse Management System team is focused on…</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Dania Beach, FL</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=504c54aa1b6198a3&amp;fccid=785d678bdb666ef9&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=09e858863bb4a856&amp;fccid=b6add0e6a71f1008&amp;vjs=3</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -6985,10 +6985,10 @@
         </is>
       </c>
       <c r="J135" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K135" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="136">
@@ -6996,36 +6996,36 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Senior Medical Imaging Software Engineer</t>
+          <t>Senior Java Engineer</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Medical Imaging Innovations</t>
+          <t>American Express</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Medical Imaging Innovations is looking to expand its team.We will review your application and contact you if your qualifications are a fit for the position.</t>
+          <t>Serve as a mentoring member of Agile teams that drives user story analysis and elaboration, designs software applications and tests.</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33487</t>
+          <t>Sunrise, FL</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>7 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=feb7a28ea004bbcb&amp;fccid=a543cad7770f8905&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=6d3b157befea4c4b&amp;fccid=f057e04c37cca134&amp;vjs=3</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7034,10 +7034,10 @@
         </is>
       </c>
       <c r="J136" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K136" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="137">
@@ -7045,36 +7045,36 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Technical Lead Audio Visual Marriott Biscayne Bay</t>
+          <t>Back-End Engineer</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>PSAV Presentation Services</t>
+          <t>T R I M</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>The Technical Lead is responsible for intermediate level set up and operation of small to large-scale audiovisual systems in a hospitality environment while…</t>
+          <t>T R I M Agency is a startup studio and practitioners of agile development.T R I M Agency is seeking a Backend Engineer to join our startup studio.</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Miami, FL 33132 (Downtown area)</t>
+          <t>Fort Lauderdale, FL</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=39cc8922c7b07949&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=f06b9fa71264d3f8&amp;fccid=ac03badfdc09d467&amp;vjs=3</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7083,10 +7083,10 @@
         </is>
       </c>
       <c r="J137" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K137" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="138">
@@ -7094,36 +7094,36 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Embedded Software/System Engineer</t>
+          <t>Application Development Manager</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Astronics</t>
+          <t>The Learning Experience Corporate Opportunities</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Provide embedded software design, technical analysis and resolution of engineering products.Assist other engineers and designers to successfully complete…</t>
+          <t>Here's how to tell if you're who we're looking for:You deliver high quality, production ready code.Your Day to Day Includes:</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33309</t>
+          <t>Deerfield Beach, FL</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7fd9ae60545c5afb&amp;fccid=0760d41f7a3c4154&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=a4b54ec13091af52&amp;fccid=383cb7ce9ff30d81&amp;vjs=3</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -7132,10 +7132,10 @@
         </is>
       </c>
       <c r="J138" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K138" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="139">
@@ -7143,36 +7143,36 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Software Engineering Architect, eCommerce</t>
+          <t>Senior Java Engineer</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Office Depot OfficeMax</t>
+          <t>American Express</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Experience with Agile and/or DevOps methodologies;Architect is responsible for design, implementation, and oversight of the organization's application systems.</t>
+          <t>Serve as a mentoring member of Agile teams that drives user story analysis and elaboration, designs software applications and tests.</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33496</t>
+          <t>Sunrise, FL</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ecc28ce75d67570e&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=6d3b157befea4c4b&amp;fccid=f057e04c37cca134&amp;vjs=3</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -7181,10 +7181,10 @@
         </is>
       </c>
       <c r="J139" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K139" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="140">
@@ -7192,21 +7192,21 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>QA Automation Engineer - Miami</t>
+          <t>Sr. Wireless Engineer</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Credit Ninja</t>
+          <t>Insight Enterprises, Inc.</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>With over 50 employees already, CreditNinja is excited to support its hypergrowth by opening a brand new office in Miami!QA test suite - Java, Cucumber.</t>
+          <t>As a Senior Wireless Network Engineer, your primary role will be to be responsible for the operation, design and management of the wireless networks to…</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7216,12 +7216,12 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=5a264bb0f9200c24&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=170162b4f0993cb0&amp;fccid=3f1f78890d39a15e&amp;vjs=3</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -7230,10 +7230,10 @@
         </is>
       </c>
       <c r="J140" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K140" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="141">
@@ -7241,36 +7241,36 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>IT Application Development Technical Lead</t>
+          <t>Mobile Engineer</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Ryder</t>
+          <t>JLL</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>The IT Application Development Technical Lead is that of a technical expert who provides leadership in the design, development and delivery of technology…</t>
+          <t>Operates, inspects, and maintains all HVAC, mechanical, electrical, plumbing, and production equipment and systems in assigned facilities to obtain most…</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Miami, FL 33138 (Upper Eastside area)</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2679085e538ad0dc&amp;fccid=389d5a2ac271d6f3&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1ca50f39e4d5cb29&amp;fccid=9917de3c28f569f6&amp;vjs=3</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -7279,10 +7279,10 @@
         </is>
       </c>
       <c r="J141" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K141" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="142">
@@ -7290,36 +7290,36 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Technical Lead Audio Visual Ritz Carlton South Beach</t>
+          <t>Software Engineer - Python - Miami</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>PSAV Presentation Services</t>
+          <t>Credit Ninja</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>The Technical Lead is responsible for intermediate level set up and operation of small to large-scale audiovisual systems in a hospitality environment while…</t>
+          <t>Your primary mission will be to build tooling for other technical and semi-technical users to make them as highly productive as possible, evolving our data…</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Miami Beach, FL 33139</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=61505fe480792ec9&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=834fab11e67743c3&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -7328,10 +7328,10 @@
         </is>
       </c>
       <c r="J142" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K142" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="143">
@@ -7339,36 +7339,36 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Sr. NET Web Application (Sr. Software Engineer)</t>
+          <t>Back-End Engineer</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Assurant</t>
+          <t>T R I M</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>The Senior Software Engineer analyzes requirements and designs, codes, tests, installs and maintains application systems, programs, functions, services, and…</t>
+          <t>T R I M Agency is a startup studio and practitioners of agile development.T R I M Agency is seeking a Backend Engineer to join our startup studio.</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Miami, FL 33157</t>
+          <t>Fort Lauderdale, FL</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=9320dbbc2e8bb80e&amp;fccid=cc80d5313758adb1&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=f06b9fa71264d3f8&amp;fccid=ac03badfdc09d467&amp;vjs=3</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -7377,10 +7377,10 @@
         </is>
       </c>
       <c r="J143" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K143" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="144">
@@ -7388,36 +7388,36 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Java – J2EE Architect</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Axiom Global Technologies</t>
+          <t>CBS</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Experience with process and methodologies such as RUP and agile.J2EE Architect/Tech Leads to join our Portal Solutions portfolio focusing on Enterprise…</t>
+          <t>CBS BUSINESS UNIT: CBS Interactive.JOB LOCATION: Fort Lauderdale, FL.The Data Engineer will be primarily responsible for designing and implementing data…</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Plantation, FL 33324</t>
+          <t>Fort Lauderdale, FL 33313</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=fbd9973a18cdde42&amp;fccid=fa02b2e9e3571333&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=d2d3a1936d82f4aa&amp;fccid=39985237a7b0e241&amp;vjs=3</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -7426,10 +7426,10 @@
         </is>
       </c>
       <c r="J144" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K144" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="145">
@@ -7437,36 +7437,36 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SENIOR EMBEDDED FIRMWARE ENGINEER</t>
+          <t>Sr. NET Web Application (Sr. Software Engineer)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Egret Technologies</t>
+          <t>Assurant</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Developing code for another revision of the same product?Do you feel that you could.Craft wonderful products if you could innovate more?</t>
+          <t>The Senior Software Engineer analyzes requirements and designs, codes, tests, installs and maintains application systems, programs, functions, services, and…</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Dania Beach, FL</t>
+          <t>Miami, FL 33157</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Today·Save </t>
+          <t>7 days ago·</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=9ef16f0f9287108f&amp;fccid=8930eb9f4efd900c&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=9320dbbc2e8bb80e&amp;fccid=cc80d5313758adb1&amp;vjs=3</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -7475,10 +7475,10 @@
         </is>
       </c>
       <c r="J145" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K145" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="146">
@@ -7486,36 +7486,36 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Technical Lead Audio Visual Ritz Carlton South Beach</t>
+          <t>IT Application Development Technical Lead</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>PSAV</t>
+          <t>Ryder</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>The Technical Lead is responsible for intermediate level set up and operation of small to large-scale audiovisual systems in a hospitality environment while…</t>
+          <t>The IT Application Development Technical Lead is that of a technical expert who provides leadership in the design, development and delivery of technology…</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Miami Beach, FL</t>
+          <t>Miami, FL 33138 (Upper Eastside area)</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a1480bd21ce8c08d&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=2679085e538ad0dc&amp;fccid=389d5a2ac271d6f3&amp;vjs=3</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -7524,10 +7524,10 @@
         </is>
       </c>
       <c r="J146" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K146" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="147">
@@ -7535,36 +7535,36 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>QA Test Automation Lead</t>
+          <t>Embedded Software/System Engineer</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Royal Caribbean Cruises Ltd. International</t>
+          <t>Astronics</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Experience working as part of an agile team, with excellent verbal and written communication skills, and the ability to present information within a public…</t>
+          <t>Summary: Provide embedded software design, technical analysis and resolution of engineering products.Essential Duties and Skills: (may include but are not…</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Fort Lauderdale, FL 33309</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Royal Carib</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e746922f13231ad8&amp;fccid=fa65a3fcc2b211c1&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=7fd9ae60545c5afb&amp;fccid=0760d41f7a3c4154&amp;vjs=3</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -7573,10 +7573,10 @@
         </is>
       </c>
       <c r="J147" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K147" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="148">
@@ -7584,36 +7584,36 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Build and Configuration Management Engineer (Temp to Hire)</t>
+          <t>Sr Java Developer/Lead</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Performant Financial Corporation</t>
+          <t>Cognizant Technology Solutions</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Automate application builds and deployments suggesting simplest and most cost-effective system options to facilitate agile development process.</t>
+          <t>Duration: Long Term Contract (CTH) or Preferred Hire Type: FT – ( Cognizant will only consider Full Time applicants for this.</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Sunrise, FL</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f8a02ce0b8858aa6&amp;fccid=6263666895b8ca6a&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=6699e5a3e9e36eb1&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="J148" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K148" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="149">
@@ -7633,36 +7633,36 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Senior Release Engineer</t>
+          <t>Middleware Infrastructure Engineer</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Amadeus IT Group SA</t>
+          <t>LMS</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Engineer will work within an Enterprise Agile Release Train, and with a system team, project managers,.The Senior Release Engineer is responsible for all…</t>
+          <t>WE ARE HERE TO GET SHIP DONE!LMS is seeking for innovators who are looking for a once-in-a-lifetime career pivoting opportunity.</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Doral, FL 33172</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=85c3183a7b867640&amp;fccid=ffc4c94689585496&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1a58bf881bccc7ed&amp;fccid=ba98ab0eaa5f2d74&amp;vjs=3</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -7671,10 +7671,10 @@
         </is>
       </c>
       <c r="J149" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K149" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="150">
@@ -7682,36 +7682,36 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Systems Engineering DevOps- Senior Consultant</t>
+          <t>Software Engineering Architect, eCommerce</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>Office Depot OfficeMax</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Lead day-to-day pilot SDLC implementations with clients and provide a diverse set of agile coaching services ranging from project management, requirements,…</t>
+          <t>Experience with Agile and/or DevOps methodologies;Provides an architectural framework for ecommerce application development, maintenance, and enhancement…</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Miami, FL 33131</t>
+          <t>Boca Raton, FL 33496</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=4648b92d48675e3c&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=ecc28ce75d67570e&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -7720,10 +7720,10 @@
         </is>
       </c>
       <c r="J150" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K150" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="151">
@@ -7731,21 +7731,21 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Senior Platform Operations Engineer</t>
+          <t>Senior Software Engineer - Miami</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Marriott Vacations Worldwide</t>
+          <t>Credit Ninja</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>As a member of the professional staff, contributes specialized knowledge and skill in a discipline (e.g.Generally works under limited supervision, but within…</t>
+          <t>You are going to be responsible for developing and maintaining our production platform.You like solving hard problems and are not afraid to touch deployment…</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7755,12 +7755,12 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=93f7e3218d33328c&amp;fccid=c9f5f950ca3de531&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=62af14a774686acf&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -7769,10 +7769,10 @@
         </is>
       </c>
       <c r="J151" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K151" s="3" t="n">
-        <v>43794.71569762013</v>
+        <v>43796.53436093393</v>
       </c>
     </row>
     <row r="152">
@@ -7780,48 +7780,1028 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
+        <v>14</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Android Engineer</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Uncommon Coders</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Project management - you won't be managing the project, but you will be working in a large team with lots of project management, so you'll have to be able to…</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>+1 location</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>4 days ago·</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=d3c7ba3ca2db8af2&amp;fccid=02008dbc1f346843&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="J152" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K152" s="3" t="n">
+        <v>43796.53436093393</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>15</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>DevOps Support</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Green Roads</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Provide hands-on technical support utilizing a combination of open source and Microsoft servers and applications.</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Deerfield Beach, FL</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>1 day ago·S</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=2403652ad1c8575e&amp;fccid=6fb681a43a198cec&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="J153" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K153" s="3" t="n">
+        <v>43796.53436093393</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>16</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Technical Lead - Web Development</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Appirio</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Appirio, a Wipro Company helps customers create next-generation Worker and Customer Experiences using the latest cloud technologies.</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Miami, FL</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>1 day ago·S</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=65392defbafb7d7f&amp;fccid=adfb429f0faca696&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="J154" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K154" s="3" t="n">
+        <v>43796.53436093393</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>17</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>QA Test Automation Lead</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Royal Caribbean Cruises Ltd. International</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Monitors the agile team to facilitate continuously improvements.Work with development team to review functionality.</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Miami, FL</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>4 days ago·</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=e746922f13231ad8&amp;fccid=fa65a3fcc2b211c1&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="J155" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K155" s="3" t="n">
+        <v>43796.53436093393</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>18</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer, Magicverse</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Magic Leap - Multiple Locations</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>As a Senior Software Engineer in our Magicverse team, you will be part of a team building highly scalable services to support web-based applications and mobile…</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Plantation, FL</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>6 days ago·</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=e8352e69c1a13527&amp;fccid=250b3b23ab6d1a65&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="J156" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K156" s="3" t="n">
+        <v>43796.53436093393</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>19</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Sr. QA Analyst - Automation Engineer</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Connection, Inc.</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>The Senior QA Analyst participates in development and testing throughout the lifecycle of product change which includes both waterfall and agile development…</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Boca Raton, FL</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Today·Save </t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b1c7455e15561589&amp;fccid=926f4db4efb03d36&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="J157" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K157" s="3" t="n">
+        <v>43796.53436093393</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>20</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>.Net Developer, National Federal Tax</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Experience working on Agile development methodology and SCRUM processes.Net front-end and SQL back-end programmer who enjoys hands-on development.</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Miami, FL 33131</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Today·Save </t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=cb753e60094f5ac5&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="J158" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K158" s="3" t="n">
+        <v>43796.53436093393</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>21</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Manager, Software Engineering</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Thomson Reuters</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Drive and develop the team’s Agile development processes with a focus on quality and timeliness.We are looking for an experienced Technology Manager to join…</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Delray Beach, FL 33445</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Today·Save </t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=c45c1ffc2e2f3abf&amp;fccid=f4c6ed63cbcfdc0d&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="J159" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K159" s="3" t="n">
+        <v>43796.53436093393</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>22</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Systems Engineer (DevOps)</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Backbase</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>How would you guide them to success?Being a consultant at Backbase means taking ownership in your projects and enable our customers to setup their environments…</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Miami, FL</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>4 days ago·</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=504c54aa1b6198a3&amp;fccid=785d678bdb666ef9&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="J160" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K160" s="3" t="n">
+        <v>43796.53436093393</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>23</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Automation Engineer</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Connection</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>The Senior QA Analyst participates in development and testing throughout the lifecycle of product change which includes both waterfall and agile development…</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Boca Raton, FL 33431</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>1 day ago·S</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=38ad8bc0e72af90f&amp;fccid=f8a8108a00b363f6&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="J161" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K161" s="3" t="n">
+        <v>43796.53436093393</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>24</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>QA Automation Engineer - Miami</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Credit Ninja</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>CreditNinja is seeking a QA Automation Engineer to join its development team, which consists of five developers and one senior QA automation engineer.</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Miami, FL</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>5 days ago·</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=5a264bb0f9200c24&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="J162" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K162" s="3" t="n">
+        <v>43796.53436093393</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>25</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Build and Configuration Management Engineer (Temp to Hire)</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Performant Financial Corporation</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Automate application builds and deployments suggesting simplest and most cost-effective system options to facilitate agile development process.</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Sunrise, FL</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>2 days ago·</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=f8a02ce0b8858aa6&amp;fccid=6263666895b8ca6a&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="J163" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K163" s="3" t="n">
+        <v>43796.53436093393</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>26</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Java – J2EE Architect</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Axiom Global Technologies</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>The ideal candidate will have a strong background and experience in J2EE and distributed Architecture, Application Architecture, SOA and full lifecycle…</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Plantation, FL 33324</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>5 days ago·</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=fbd9973a18cdde42&amp;fccid=fa02b2e9e3571333&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="J164" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K164" s="3" t="n">
+        <v>43796.53436093393</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>27</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Technical Lead Audio Visual Marriott Biscayne Bay</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>PSAV Presentation Services</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>The Technical Lead is responsible for intermediate level set up and operation of small to large-scale audiovisual systems in a hospitality environment while…</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Miami, FL 33132 (Downtown area)</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>5 days ago·</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=39cc8922c7b07949&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="J165" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K165" s="3" t="n">
+        <v>43796.53436093393</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>28</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Technical Lead Audio Visual Ritz Carlton South Beach</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>PSAV Presentation Services</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>The Technical Lead is responsible for intermediate level set up and operation of small to large-scale audiovisual systems in a hospitality environment while…</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Miami Beach, FL 33139</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>6 days ago·</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=61505fe480792ec9&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="J166" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K166" s="3" t="n">
+        <v>43796.53436093393</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>29</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>.Net Senior Developer, National Federal Tax</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Experience working on Agile development methodology and SCRUM processes.As a Senior Consultant on our team, you will assist with the design, analysis,…</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Miami, FL 33131</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Today·Save </t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=63cc9d40140db41b&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="J167" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K167" s="3" t="n">
+        <v>43796.53436093393</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
         <v>30</v>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Technical Lead Audio Visual Marriott Biscayne Bay</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>PSAV</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>The Technical Lead is responsible for intermediate level set up and operation of small to large-scale audiovisual systems in a hospitality environment while…</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Miami, FL 33131</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>1 day ago·S</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=f915cc44a35259c8&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="J168" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K168" s="3" t="n">
+        <v>43796.53436093393</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>31</v>
+      </c>
+      <c r="C169" t="inlineStr">
         <is>
           <t>Global Head of Patent - US/EMEA/APAC</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="D169" t="inlineStr">
         <is>
           <t>TTI Corporate</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>Global Head of Patent - US/EMEA/APAC.Techtronic Industries North America, Inc., has an opening for a Global Head of Patent for the US, EMEA, and APAC.</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>Fort Lauderdale, FL 33301 (Colee Hammock area)</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>5 days ago·</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>7 days ago·</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
         <is>
           <t>https://www.indeed.com/viewjob?jk=1385149d006ebd00&amp;fccid=4687d587b4d4796d&amp;vjs=3</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>Developer</t>
-        </is>
-      </c>
-      <c r="J152" s="2" t="n">
-        <v>43794</v>
-      </c>
-      <c r="K152" s="3" t="n">
-        <v>43794.71569762013</v>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="J169" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K169" s="3" t="n">
+        <v>43796.53436093393</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>32</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Technical Lead Audio Visual Ritz Carlton South Beach</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>PSAV</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>The Technical Lead is responsible for intermediate level set up and operation of small to large-scale audiovisual systems in a hospitality environment while…</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Miami Beach, FL</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>6 days ago·</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=a1480bd21ce8c08d&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="J170" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K170" s="3" t="n">
+        <v>43796.53436093393</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>33</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>SENIOR EMBEDDED FIRMWARE ENGINEER</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Egret Technologies</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Do you feel that you could.Would you like to see more of.Challenges across the medical electronics field.You will work with our clients to.</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Dania Beach, FL</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>2 days ago·</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=9ef16f0f9287108f&amp;fccid=8930eb9f4efd900c&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="J171" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K171" s="3" t="n">
+        <v>43796.53436093393</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>34</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Systems Engineering DevOps- Senior Consultant</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Lead day-to-day pilot SDLC implementations with clients and provide a diverse set of agile coaching services ranging from project management, requirements,…</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Miami, FL 33131</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>6 days ago·</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=4648b92d48675e3c&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="J172" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K172" s="3" t="n">
+        <v>43796.53436093393</v>
       </c>
     </row>
   </sheetData>
